--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_22.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>738451.4540346387</v>
+        <v>750464.5339221579</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13360835.96253918</v>
+        <v>12049526.89607446</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3999173.13461325</v>
+        <v>2713959.118571166</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7063392.006530844</v>
+        <v>7589823.15919814</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>240.892059990035</v>
       </c>
       <c r="D2" t="n">
         <v>419.0596946068497</v>
@@ -668,16 +670,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>99.29390514393138</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -814,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>121.9815308269507</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>181.2635869532365</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
@@ -908,13 +910,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>143.1577480494825</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>159.5936761967242</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1072,7 +1074,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>260.444681387164</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
@@ -1139,19 +1141,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>71.19354926594448</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>89.37025277729876</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
@@ -1190,16 +1192,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>82.49270437610961</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
@@ -1354,7 +1356,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>74.37409663181596</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1388,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>339.5124852438391</v>
       </c>
       <c r="Y11" t="n">
-        <v>133.7682651318491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1585,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W13" t="n">
-        <v>154.8833258811978</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1613,19 +1615,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1664,16 +1666,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>59.97699936530243</v>
       </c>
       <c r="Y14" t="n">
-        <v>398.547078837008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>4.378995526348206</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1862,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1897,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458144</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
         <v>255.7713603095518</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>104.9037564455521</v>
       </c>
       <c r="T19" t="n">
-        <v>32.03690397902969</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2254,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>51.58543740429417</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2305,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>222.7998986723415</v>
       </c>
     </row>
     <row r="23">
@@ -2527,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>100.8123657859482</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2716,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>51.58543740429501</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>154.8833258811978</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2965,7 +2967,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>40.0960608702952</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>156.6183086722455</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3083,7 +3085,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>255.771360309553</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>168.9733955350583</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>51.58543740429501</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3430,7 +3432,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>241.1868064829371</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>207.1414179996206</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3667,7 +3669,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
@@ -3676,10 +3678,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>66.7177978711148</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3727,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>195.70826368304</v>
+        <v>78.41573716644007</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -3752,10 +3754,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -3791,22 +3793,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3904,7 +3906,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>48.83731858401338</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -3913,10 +3915,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
@@ -3958,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>110.0500814925468</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.497525242816</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>184.3968341988025</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4040,10 +4042,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4138,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>96.44420510686392</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1365.515780182154</v>
+        <v>1966.556343058788</v>
       </c>
       <c r="C2" t="n">
-        <v>938.6150501954539</v>
+        <v>1723.231029937541</v>
       </c>
       <c r="D2" t="n">
-        <v>515.3224293804542</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E2" t="n">
-        <v>89.34548952831176</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F2" t="n">
-        <v>89.34548952831176</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G2" t="n">
-        <v>89.34548952831176</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H2" t="n">
-        <v>89.34548952831176</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I2" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J2" t="n">
-        <v>54.44861827178296</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>728.2502693850971</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L2" t="n">
-        <v>918.7421318583365</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="M2" t="n">
-        <v>1592.543782971651</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="N2" t="n">
-        <v>2266.345434084965</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="O2" t="n">
-        <v>2266.345434084965</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="P2" t="n">
-        <v>2266.345434084965</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q2" t="n">
-        <v>2722.430913589148</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R2" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S2" t="n">
-        <v>2622.134039706389</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T2" t="n">
-        <v>2401.208468751022</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U2" t="n">
-        <v>2142.853559347434</v>
+        <v>1966.556343058788</v>
       </c>
       <c r="V2" t="n">
-        <v>1785.364144473684</v>
+        <v>1966.556343058788</v>
       </c>
       <c r="W2" t="n">
-        <v>1785.364144473684</v>
+        <v>1966.556343058788</v>
       </c>
       <c r="X2" t="n">
-        <v>1785.364144473684</v>
+        <v>1966.556343058788</v>
       </c>
       <c r="Y2" t="n">
-        <v>1785.364144473684</v>
+        <v>1966.556343058788</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1480.866774040094</v>
+        <v>983.3471129133217</v>
       </c>
       <c r="C3" t="n">
-        <v>1363.360870557599</v>
+        <v>865.8412094308264</v>
       </c>
       <c r="D3" t="n">
-        <v>1259.520912072884</v>
+        <v>762.0012509461114</v>
       </c>
       <c r="E3" t="n">
-        <v>1154.818978345821</v>
+        <v>657.2993172190487</v>
       </c>
       <c r="F3" t="n">
-        <v>1061.173148028725</v>
+        <v>563.6534869019529</v>
       </c>
       <c r="G3" t="n">
-        <v>967.1193762463289</v>
+        <v>469.5997151195569</v>
       </c>
       <c r="H3" t="n">
-        <v>913.7432830086385</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="I3" t="n">
-        <v>921.1899259705503</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="J3" t="n">
-        <v>1192.887415250141</v>
+        <v>687.9211111614576</v>
       </c>
       <c r="K3" t="n">
-        <v>1192.887415250141</v>
+        <v>1128.080930530456</v>
       </c>
       <c r="L3" t="n">
-        <v>1374.82761136252</v>
+        <v>1128.080930530456</v>
       </c>
       <c r="M3" t="n">
-        <v>2048.629262475834</v>
+        <v>1128.080930530456</v>
       </c>
       <c r="N3" t="n">
-        <v>2722.430913589148</v>
+        <v>1128.080930530456</v>
       </c>
       <c r="O3" t="n">
-        <v>2722.430913589148</v>
+        <v>1128.080930530456</v>
       </c>
       <c r="P3" t="n">
-        <v>2722.430913589148</v>
+        <v>1678.746465514894</v>
       </c>
       <c r="Q3" t="n">
-        <v>2722.430913589148</v>
+        <v>2142.891942377673</v>
       </c>
       <c r="R3" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S3" t="n">
-        <v>2641.106666150403</v>
+        <v>2143.587005023631</v>
       </c>
       <c r="T3" t="n">
-        <v>2499.226730448081</v>
+        <v>2001.707069321309</v>
       </c>
       <c r="U3" t="n">
-        <v>2314.458534367718</v>
+        <v>1816.938873240946</v>
       </c>
       <c r="V3" t="n">
-        <v>2109.485395506984</v>
+        <v>1611.965734380212</v>
       </c>
       <c r="W3" t="n">
-        <v>1912.964018340201</v>
+        <v>1415.444357213429</v>
       </c>
       <c r="X3" t="n">
-        <v>1749.486672106864</v>
+        <v>1251.967010980092</v>
       </c>
       <c r="Y3" t="n">
-        <v>1609.793783460156</v>
+        <v>1112.274122333384</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1003.301533750576</v>
+        <v>545.9957668907073</v>
       </c>
       <c r="C4" t="n">
-        <v>880.0878662486058</v>
+        <v>374.0232037696233</v>
       </c>
       <c r="D4" t="n">
-        <v>880.0878662486058</v>
+        <v>210.706430896394</v>
       </c>
       <c r="E4" t="n">
-        <v>713.8796604014593</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F4" t="n">
-        <v>542.0178861760197</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G4" t="n">
-        <v>542.0178861760197</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H4" t="n">
-        <v>542.0178861760197</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I4" t="n">
-        <v>542.0178861760197</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="J4" t="n">
-        <v>599.5092144001777</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K4" t="n">
-        <v>826.0368156060149</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L4" t="n">
-        <v>1180.726136900436</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M4" t="n">
-        <v>1571.911931870686</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N4" t="n">
-        <v>1949.403442746722</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>2304.831571426485</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P4" t="n">
-        <v>2595.430783348386</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q4" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R4" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S4" t="n">
-        <v>2552.295866108283</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T4" t="n">
-        <v>2308.956518334183</v>
+        <v>2041.81672018638</v>
       </c>
       <c r="U4" t="n">
-        <v>2028.772069834487</v>
+        <v>1761.632271686684</v>
       </c>
       <c r="V4" t="n">
-        <v>1747.060602442516</v>
+        <v>1479.920804294713</v>
       </c>
       <c r="W4" t="n">
-        <v>1472.208198615029</v>
+        <v>1205.068400467226</v>
       </c>
       <c r="X4" t="n">
-        <v>1229.644302060834</v>
+        <v>962.5045039130309</v>
       </c>
       <c r="Y4" t="n">
-        <v>1003.301533750576</v>
+        <v>736.161735602773</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2053.61146926219</v>
+        <v>2516.694910195414</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.71073927549</v>
+        <v>2089.794180208714</v>
       </c>
       <c r="D5" t="n">
-        <v>1203.41811846049</v>
+        <v>1666.501559393715</v>
       </c>
       <c r="E5" t="n">
-        <v>777.4411786083479</v>
+        <v>1240.524619541572</v>
       </c>
       <c r="F5" t="n">
-        <v>352.3169967977481</v>
+        <v>815.4004377309724</v>
       </c>
       <c r="G5" t="n">
-        <v>352.3169967977481</v>
+        <v>411.061375320421</v>
       </c>
       <c r="H5" t="n">
-        <v>54.44861827178296</v>
+        <v>113.1929967944558</v>
       </c>
       <c r="I5" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792703</v>
       </c>
       <c r="J5" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792703</v>
       </c>
       <c r="K5" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792703</v>
       </c>
       <c r="L5" t="n">
-        <v>728.2502693850971</v>
+        <v>1007.921173157204</v>
       </c>
       <c r="M5" t="n">
-        <v>1402.051920498411</v>
+        <v>1976.83572668905</v>
       </c>
       <c r="N5" t="n">
-        <v>2075.853571611725</v>
+        <v>2361.382347587611</v>
       </c>
       <c r="O5" t="n">
-        <v>2604.874578707245</v>
+        <v>3206.526997738423</v>
       </c>
       <c r="P5" t="n">
-        <v>2604.874578707245</v>
+        <v>3914.806276896351</v>
       </c>
       <c r="Q5" t="n">
-        <v>2604.874578707245</v>
+        <v>3914.806276896351</v>
       </c>
       <c r="R5" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.806276896351</v>
       </c>
       <c r="S5" t="n">
-        <v>2618.063619462288</v>
+        <v>3914.806276896351</v>
       </c>
       <c r="T5" t="n">
-        <v>2473.45983355372</v>
+        <v>3914.806276896351</v>
       </c>
       <c r="U5" t="n">
-        <v>2473.45983355372</v>
+        <v>3914.806276896351</v>
       </c>
       <c r="V5" t="n">
-        <v>2473.45983355372</v>
+        <v>3914.806276896351</v>
       </c>
       <c r="W5" t="n">
-        <v>2473.45983355372</v>
+        <v>3753.600543364306</v>
       </c>
       <c r="X5" t="n">
-        <v>2473.45983355372</v>
+        <v>3341.880544532054</v>
       </c>
       <c r="Y5" t="n">
-        <v>2473.45983355372</v>
+        <v>2936.543274486944</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>621.5721093032382</v>
+        <v>645.4196165693822</v>
       </c>
       <c r="C6" t="n">
-        <v>504.066205820743</v>
+        <v>527.913713086887</v>
       </c>
       <c r="D6" t="n">
-        <v>400.226247336028</v>
+        <v>424.0737546021721</v>
       </c>
       <c r="E6" t="n">
-        <v>295.5243136089652</v>
+        <v>319.3718208751093</v>
       </c>
       <c r="F6" t="n">
-        <v>201.8784832918694</v>
+        <v>225.7259905580135</v>
       </c>
       <c r="G6" t="n">
-        <v>107.8247115094734</v>
+        <v>131.6722187756174</v>
       </c>
       <c r="H6" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792703</v>
       </c>
       <c r="I6" t="n">
-        <v>61.8952612336948</v>
+        <v>78.29612553792703</v>
       </c>
       <c r="J6" t="n">
-        <v>61.8952612336948</v>
+        <v>78.29612553792703</v>
       </c>
       <c r="K6" t="n">
-        <v>652.3801878020344</v>
+        <v>78.29612553792703</v>
       </c>
       <c r="L6" t="n">
-        <v>1189.334597738979</v>
+        <v>915.0949336208332</v>
       </c>
       <c r="M6" t="n">
-        <v>1189.334597738979</v>
+        <v>915.0949336208332</v>
       </c>
       <c r="N6" t="n">
-        <v>1863.136248852293</v>
+        <v>915.0949336208332</v>
       </c>
       <c r="O6" t="n">
-        <v>1863.136248852293</v>
+        <v>1804.576211632305</v>
       </c>
       <c r="P6" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="Q6" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="R6" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="S6" t="n">
-        <v>1781.812001413547</v>
+        <v>1805.659508679691</v>
       </c>
       <c r="T6" t="n">
-        <v>1639.932065711226</v>
+        <v>1663.77957297737</v>
       </c>
       <c r="U6" t="n">
-        <v>1455.163869630862</v>
+        <v>1479.011376897006</v>
       </c>
       <c r="V6" t="n">
-        <v>1250.190730770128</v>
+        <v>1274.038238036272</v>
       </c>
       <c r="W6" t="n">
-        <v>1053.669353603346</v>
+        <v>1077.51686086949</v>
       </c>
       <c r="X6" t="n">
-        <v>890.1920073700086</v>
+        <v>914.0395146361526</v>
       </c>
       <c r="Y6" t="n">
-        <v>750.499118723301</v>
+        <v>774.346625989445</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1037.861172536296</v>
+        <v>1161.477248062164</v>
       </c>
       <c r="C7" t="n">
-        <v>865.8886094152118</v>
+        <v>989.5046849410799</v>
       </c>
       <c r="D7" t="n">
-        <v>702.5718365419825</v>
+        <v>826.1879120678506</v>
       </c>
       <c r="E7" t="n">
-        <v>536.363630694836</v>
+        <v>659.9797062207041</v>
       </c>
       <c r="F7" t="n">
-        <v>364.5018564693964</v>
+        <v>488.1179319952645</v>
       </c>
       <c r="G7" t="n">
-        <v>198.2448867636286</v>
+        <v>321.8609622894967</v>
       </c>
       <c r="H7" t="n">
-        <v>54.44861827178296</v>
+        <v>178.064693797651</v>
       </c>
       <c r="I7" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792703</v>
       </c>
       <c r="J7" t="n">
-        <v>111.939946495941</v>
+        <v>135.7874537620851</v>
       </c>
       <c r="K7" t="n">
-        <v>338.4675477017781</v>
+        <v>362.3150549679223</v>
       </c>
       <c r="L7" t="n">
-        <v>693.1568689961989</v>
+        <v>717.004376262343</v>
       </c>
       <c r="M7" t="n">
-        <v>1084.34266396645</v>
+        <v>1108.190171232594</v>
       </c>
       <c r="N7" t="n">
-        <v>1461.834174842485</v>
+        <v>1485.68168210863</v>
       </c>
       <c r="O7" t="n">
-        <v>1817.262303522249</v>
+        <v>1841.109810788393</v>
       </c>
       <c r="P7" t="n">
-        <v>2107.86151544415</v>
+        <v>2131.709022710294</v>
       </c>
       <c r="Q7" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="R7" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="S7" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="T7" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="U7" t="n">
-        <v>1971.786209940301</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="V7" t="n">
-        <v>1971.786209940301</v>
+        <v>2095.402285466169</v>
       </c>
       <c r="W7" t="n">
-        <v>1696.933806112814</v>
+        <v>1820.549881638682</v>
       </c>
       <c r="X7" t="n">
-        <v>1454.369909558619</v>
+        <v>1577.985985084488</v>
       </c>
       <c r="Y7" t="n">
-        <v>1228.027141248361</v>
+        <v>1351.64321677423</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2138.783139103334</v>
+        <v>1444.739398795101</v>
       </c>
       <c r="C8" t="n">
-        <v>1711.882409116634</v>
+        <v>1017.838668808401</v>
       </c>
       <c r="D8" t="n">
-        <v>1288.589788301635</v>
+        <v>594.5460479934015</v>
       </c>
       <c r="E8" t="n">
-        <v>1216.677112275428</v>
+        <v>168.5691081412591</v>
       </c>
       <c r="F8" t="n">
-        <v>791.5529304648283</v>
+        <v>78.29612553792703</v>
       </c>
       <c r="G8" t="n">
-        <v>387.2138680542769</v>
+        <v>78.29612553792703</v>
       </c>
       <c r="H8" t="n">
-        <v>89.34548952831176</v>
+        <v>78.29612553792703</v>
       </c>
       <c r="I8" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792703</v>
       </c>
       <c r="J8" t="n">
-        <v>54.44861827178296</v>
+        <v>440.8995843548225</v>
       </c>
       <c r="K8" t="n">
-        <v>728.2502693850971</v>
+        <v>440.8995843548225</v>
       </c>
       <c r="L8" t="n">
-        <v>1402.051920498411</v>
+        <v>440.8995843548225</v>
       </c>
       <c r="M8" t="n">
-        <v>1931.072927593931</v>
+        <v>1409.814137886669</v>
       </c>
       <c r="N8" t="n">
-        <v>1931.072927593931</v>
+        <v>2378.728691418516</v>
       </c>
       <c r="O8" t="n">
-        <v>2604.874578707245</v>
+        <v>3223.873341569328</v>
       </c>
       <c r="P8" t="n">
-        <v>2604.874578707245</v>
+        <v>3797.249942014448</v>
       </c>
       <c r="Q8" t="n">
-        <v>2604.874578707245</v>
+        <v>3797.249942014448</v>
       </c>
       <c r="R8" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.806276896351</v>
       </c>
       <c r="S8" t="n">
-        <v>2618.063619462288</v>
+        <v>3914.806276896351</v>
       </c>
       <c r="T8" t="n">
-        <v>2397.138048506922</v>
+        <v>3693.880705940984</v>
       </c>
       <c r="U8" t="n">
-        <v>2138.783139103334</v>
+        <v>3435.525796537397</v>
       </c>
       <c r="V8" t="n">
-        <v>2138.783139103334</v>
+        <v>3078.036381663646</v>
       </c>
       <c r="W8" t="n">
-        <v>2138.783139103334</v>
+        <v>2681.645031963993</v>
       </c>
       <c r="X8" t="n">
-        <v>2138.783139103334</v>
+        <v>2269.925033131741</v>
       </c>
       <c r="Y8" t="n">
-        <v>2138.783139103334</v>
+        <v>1864.587763086631</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>621.5721093032382</v>
+        <v>645.4196165693822</v>
       </c>
       <c r="C9" t="n">
-        <v>504.066205820743</v>
+        <v>527.913713086887</v>
       </c>
       <c r="D9" t="n">
-        <v>400.226247336028</v>
+        <v>424.0737546021721</v>
       </c>
       <c r="E9" t="n">
-        <v>295.5243136089652</v>
+        <v>319.3718208751093</v>
       </c>
       <c r="F9" t="n">
-        <v>201.8784832918694</v>
+        <v>225.7259905580135</v>
       </c>
       <c r="G9" t="n">
-        <v>107.8247115094734</v>
+        <v>131.6722187756174</v>
       </c>
       <c r="H9" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792703</v>
       </c>
       <c r="I9" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792703</v>
       </c>
       <c r="J9" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792703</v>
       </c>
       <c r="K9" t="n">
-        <v>54.44861827178296</v>
+        <v>668.7810521062665</v>
       </c>
       <c r="L9" t="n">
-        <v>515.5329466256644</v>
+        <v>668.7810521062665</v>
       </c>
       <c r="M9" t="n">
-        <v>1189.334597738979</v>
+        <v>836.0498925018867</v>
       </c>
       <c r="N9" t="n">
-        <v>1863.136248852293</v>
+        <v>1804.964446033734</v>
       </c>
       <c r="O9" t="n">
-        <v>1863.136248852293</v>
+        <v>1804.964446033734</v>
       </c>
       <c r="P9" t="n">
-        <v>1863.136248852293</v>
+        <v>1804.964446033734</v>
       </c>
       <c r="Q9" t="n">
-        <v>1863.136248852293</v>
+        <v>1804.964446033734</v>
       </c>
       <c r="R9" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="S9" t="n">
-        <v>1781.812001413547</v>
+        <v>1805.659508679691</v>
       </c>
       <c r="T9" t="n">
-        <v>1639.932065711226</v>
+        <v>1663.77957297737</v>
       </c>
       <c r="U9" t="n">
-        <v>1455.163869630862</v>
+        <v>1479.011376897006</v>
       </c>
       <c r="V9" t="n">
-        <v>1250.190730770128</v>
+        <v>1274.038238036272</v>
       </c>
       <c r="W9" t="n">
-        <v>1053.669353603346</v>
+        <v>1077.51686086949</v>
       </c>
       <c r="X9" t="n">
-        <v>890.1920073700086</v>
+        <v>914.0395146361526</v>
       </c>
       <c r="Y9" t="n">
-        <v>750.499118723301</v>
+        <v>774.346625989445</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>655.7147283729668</v>
+        <v>659.9797062207041</v>
       </c>
       <c r="C10" t="n">
-        <v>483.7421652518827</v>
+        <v>659.9797062207041</v>
       </c>
       <c r="D10" t="n">
-        <v>320.4253923786534</v>
+        <v>659.9797062207041</v>
       </c>
       <c r="E10" t="n">
-        <v>154.217186531507</v>
+        <v>659.9797062207041</v>
       </c>
       <c r="F10" t="n">
-        <v>154.217186531507</v>
+        <v>488.1179319952645</v>
       </c>
       <c r="G10" t="n">
-        <v>154.217186531507</v>
+        <v>321.8609622894967</v>
       </c>
       <c r="H10" t="n">
-        <v>154.217186531507</v>
+        <v>178.064693797651</v>
       </c>
       <c r="I10" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792703</v>
       </c>
       <c r="J10" t="n">
-        <v>111.939946495941</v>
+        <v>135.7874537620851</v>
       </c>
       <c r="K10" t="n">
-        <v>338.4675477017781</v>
+        <v>362.3150549679223</v>
       </c>
       <c r="L10" t="n">
-        <v>693.1568689961989</v>
+        <v>717.004376262343</v>
       </c>
       <c r="M10" t="n">
-        <v>1084.34266396645</v>
+        <v>1108.190171232594</v>
       </c>
       <c r="N10" t="n">
-        <v>1461.834174842485</v>
+        <v>1485.68168210863</v>
       </c>
       <c r="O10" t="n">
-        <v>1817.262303522249</v>
+        <v>1841.109810788393</v>
       </c>
       <c r="P10" t="n">
-        <v>2107.86151544415</v>
+        <v>2131.709022710294</v>
       </c>
       <c r="Q10" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="R10" t="n">
-        <v>2234.861645684911</v>
+        <v>2211.670539638229</v>
       </c>
       <c r="S10" t="n">
-        <v>2234.861645684911</v>
+        <v>2041.535492157363</v>
       </c>
       <c r="T10" t="n">
-        <v>2151.535681668639</v>
+        <v>1798.196144383263</v>
       </c>
       <c r="U10" t="n">
-        <v>1871.351233168943</v>
+        <v>1518.011695883568</v>
       </c>
       <c r="V10" t="n">
-        <v>1589.639765776972</v>
+        <v>1236.300228491596</v>
       </c>
       <c r="W10" t="n">
-        <v>1314.787361949485</v>
+        <v>961.4478246641095</v>
       </c>
       <c r="X10" t="n">
-        <v>1072.22346539529</v>
+        <v>886.322474530962</v>
       </c>
       <c r="Y10" t="n">
-        <v>845.8806970850324</v>
+        <v>659.9797062207041</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1755.743090736225</v>
+        <v>1814.487469258898</v>
       </c>
       <c r="C11" t="n">
-        <v>1328.842360749525</v>
+        <v>1387.586739272198</v>
       </c>
       <c r="D11" t="n">
-        <v>905.5497399345252</v>
+        <v>964.294118457198</v>
       </c>
       <c r="E11" t="n">
-        <v>479.5728000823827</v>
+        <v>538.3171786050556</v>
       </c>
       <c r="F11" t="n">
-        <v>54.44861827178296</v>
+        <v>113.1929967944558</v>
       </c>
       <c r="G11" t="n">
-        <v>54.44861827178296</v>
+        <v>113.1929967944558</v>
       </c>
       <c r="H11" t="n">
-        <v>54.44861827178296</v>
+        <v>113.1929967944558</v>
       </c>
       <c r="I11" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792703</v>
       </c>
       <c r="J11" t="n">
-        <v>54.44861827178296</v>
+        <v>440.8995843548225</v>
       </c>
       <c r="K11" t="n">
-        <v>54.44861827178296</v>
+        <v>1156.407892330322</v>
       </c>
       <c r="L11" t="n">
-        <v>728.2502693850971</v>
+        <v>2086.032939949598</v>
       </c>
       <c r="M11" t="n">
-        <v>1374.82761136252</v>
+        <v>3054.947493481445</v>
       </c>
       <c r="N11" t="n">
-        <v>2048.629262475834</v>
+        <v>3797.249942014448</v>
       </c>
       <c r="O11" t="n">
-        <v>2722.430913589148</v>
+        <v>3797.249942014448</v>
       </c>
       <c r="P11" t="n">
-        <v>2722.430913589148</v>
+        <v>3797.249942014448</v>
       </c>
       <c r="Q11" t="n">
-        <v>2722.430913589148</v>
+        <v>3797.249942014448</v>
       </c>
       <c r="R11" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.806276896351</v>
       </c>
       <c r="S11" t="n">
-        <v>2722.430913589148</v>
+        <v>3810.438982769491</v>
       </c>
       <c r="T11" t="n">
-        <v>2722.430913589148</v>
+        <v>3589.513411814125</v>
       </c>
       <c r="U11" t="n">
-        <v>2722.430913589148</v>
+        <v>3331.158502410537</v>
       </c>
       <c r="V11" t="n">
-        <v>2722.430913589148</v>
+        <v>2973.669087536787</v>
       </c>
       <c r="W11" t="n">
-        <v>2722.430913589148</v>
+        <v>2577.277737837134</v>
       </c>
       <c r="X11" t="n">
-        <v>2310.710914756895</v>
+        <v>2234.335833550428</v>
       </c>
       <c r="Y11" t="n">
-        <v>2175.591455027755</v>
+        <v>2234.335833550428</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>621.5721093032382</v>
+        <v>645.4196165693822</v>
       </c>
       <c r="C12" t="n">
-        <v>504.066205820743</v>
+        <v>527.913713086887</v>
       </c>
       <c r="D12" t="n">
-        <v>400.226247336028</v>
+        <v>424.0737546021721</v>
       </c>
       <c r="E12" t="n">
-        <v>295.5243136089652</v>
+        <v>319.3718208751093</v>
       </c>
       <c r="F12" t="n">
-        <v>201.8784832918694</v>
+        <v>225.7259905580135</v>
       </c>
       <c r="G12" t="n">
-        <v>107.8247115094734</v>
+        <v>131.6722187756174</v>
       </c>
       <c r="H12" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792703</v>
       </c>
       <c r="I12" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792703</v>
       </c>
       <c r="J12" t="n">
-        <v>54.44861827178296</v>
+        <v>349.9936148175181</v>
       </c>
       <c r="K12" t="n">
-        <v>54.44861827178296</v>
+        <v>349.9936148175181</v>
       </c>
       <c r="L12" t="n">
-        <v>515.5329466256644</v>
+        <v>349.9936148175181</v>
       </c>
       <c r="M12" t="n">
-        <v>1189.334597738979</v>
+        <v>918.0692025865899</v>
       </c>
       <c r="N12" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="O12" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="P12" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="Q12" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="R12" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="S12" t="n">
-        <v>1781.812001413547</v>
+        <v>1805.659508679691</v>
       </c>
       <c r="T12" t="n">
-        <v>1639.932065711226</v>
+        <v>1663.77957297737</v>
       </c>
       <c r="U12" t="n">
-        <v>1455.163869630862</v>
+        <v>1479.011376897006</v>
       </c>
       <c r="V12" t="n">
-        <v>1250.190730770128</v>
+        <v>1274.038238036272</v>
       </c>
       <c r="W12" t="n">
-        <v>1053.669353603346</v>
+        <v>1077.51686086949</v>
       </c>
       <c r="X12" t="n">
-        <v>890.1920073700086</v>
+        <v>914.0395146361526</v>
       </c>
       <c r="Y12" t="n">
-        <v>750.499118723301</v>
+        <v>774.346625989445</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1137.62974079602</v>
+        <v>1161.477248062164</v>
       </c>
       <c r="C13" t="n">
-        <v>965.6571776749358</v>
+        <v>989.5046849410799</v>
       </c>
       <c r="D13" t="n">
-        <v>802.3404048017065</v>
+        <v>826.1879120678506</v>
       </c>
       <c r="E13" t="n">
-        <v>636.1321989545601</v>
+        <v>659.9797062207041</v>
       </c>
       <c r="F13" t="n">
-        <v>464.2704247291205</v>
+        <v>488.1179319952645</v>
       </c>
       <c r="G13" t="n">
-        <v>298.0134550233526</v>
+        <v>321.8609622894967</v>
       </c>
       <c r="H13" t="n">
-        <v>154.217186531507</v>
+        <v>178.064693797651</v>
       </c>
       <c r="I13" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792703</v>
       </c>
       <c r="J13" t="n">
-        <v>111.939946495941</v>
+        <v>135.7874537620851</v>
       </c>
       <c r="K13" t="n">
-        <v>338.4675477017781</v>
+        <v>362.3150549679223</v>
       </c>
       <c r="L13" t="n">
-        <v>693.1568689961989</v>
+        <v>717.004376262343</v>
       </c>
       <c r="M13" t="n">
-        <v>1084.34266396645</v>
+        <v>1108.190171232594</v>
       </c>
       <c r="N13" t="n">
-        <v>1461.834174842485</v>
+        <v>1485.68168210863</v>
       </c>
       <c r="O13" t="n">
-        <v>1817.262303522249</v>
+        <v>1841.109810788393</v>
       </c>
       <c r="P13" t="n">
-        <v>2107.86151544415</v>
+        <v>2131.709022710294</v>
       </c>
       <c r="Q13" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="R13" t="n">
-        <v>2234.861645684911</v>
+        <v>2211.670539638229</v>
       </c>
       <c r="S13" t="n">
-        <v>2234.861645684911</v>
+        <v>2211.670539638229</v>
       </c>
       <c r="T13" t="n">
-        <v>2234.861645684911</v>
+        <v>2211.670539638229</v>
       </c>
       <c r="U13" t="n">
-        <v>2234.861645684911</v>
+        <v>2211.670539638229</v>
       </c>
       <c r="V13" t="n">
-        <v>1953.15017829294</v>
+        <v>2095.402285466169</v>
       </c>
       <c r="W13" t="n">
-        <v>1796.702374372538</v>
+        <v>1820.549881638682</v>
       </c>
       <c r="X13" t="n">
-        <v>1554.138477818344</v>
+        <v>1577.985985084488</v>
       </c>
       <c r="Y13" t="n">
-        <v>1327.795709508086</v>
+        <v>1351.64321677423</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>904.6419690734826</v>
+        <v>2516.694910195414</v>
       </c>
       <c r="C14" t="n">
-        <v>477.7412390867827</v>
+        <v>2089.794180208714</v>
       </c>
       <c r="D14" t="n">
-        <v>54.44861827178296</v>
+        <v>1666.501559393715</v>
       </c>
       <c r="E14" t="n">
-        <v>54.44861827178296</v>
+        <v>1240.524619541572</v>
       </c>
       <c r="F14" t="n">
-        <v>54.44861827178296</v>
+        <v>815.4004377309724</v>
       </c>
       <c r="G14" t="n">
-        <v>54.44861827178296</v>
+        <v>411.061375320421</v>
       </c>
       <c r="H14" t="n">
-        <v>54.44861827178296</v>
+        <v>113.1929967944558</v>
       </c>
       <c r="I14" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792703</v>
       </c>
       <c r="J14" t="n">
-        <v>417.0520770886785</v>
+        <v>78.29612553792703</v>
       </c>
       <c r="K14" t="n">
-        <v>1090.853728201993</v>
+        <v>78.29612553792703</v>
       </c>
       <c r="L14" t="n">
-        <v>1764.655379315307</v>
+        <v>818.8259796696782</v>
       </c>
       <c r="M14" t="n">
-        <v>1931.072927593931</v>
+        <v>818.8259796696782</v>
       </c>
       <c r="N14" t="n">
-        <v>1931.072927593931</v>
+        <v>1787.740533201525</v>
       </c>
       <c r="O14" t="n">
-        <v>1931.072927593931</v>
+        <v>2632.885183352337</v>
       </c>
       <c r="P14" t="n">
-        <v>2604.874578707245</v>
+        <v>3341.164462510265</v>
       </c>
       <c r="Q14" t="n">
-        <v>2604.874578707245</v>
+        <v>3797.249942014448</v>
       </c>
       <c r="R14" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.806276896351</v>
       </c>
       <c r="S14" t="n">
-        <v>2618.063619462288</v>
+        <v>3810.438982769491</v>
       </c>
       <c r="T14" t="n">
-        <v>2397.138048506922</v>
+        <v>3589.513411814125</v>
       </c>
       <c r="U14" t="n">
-        <v>2138.783139103334</v>
+        <v>3331.158502410537</v>
       </c>
       <c r="V14" t="n">
-        <v>2138.783139103334</v>
+        <v>2973.669087536787</v>
       </c>
       <c r="W14" t="n">
-        <v>2138.783139103334</v>
+        <v>2577.277737837134</v>
       </c>
       <c r="X14" t="n">
-        <v>1727.063140271081</v>
+        <v>2516.694910195414</v>
       </c>
       <c r="Y14" t="n">
-        <v>1324.490333365013</v>
+        <v>2516.694910195414</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>621.5721093032382</v>
+        <v>645.4196165693822</v>
       </c>
       <c r="C15" t="n">
-        <v>504.066205820743</v>
+        <v>527.913713086887</v>
       </c>
       <c r="D15" t="n">
-        <v>400.226247336028</v>
+        <v>424.0737546021721</v>
       </c>
       <c r="E15" t="n">
-        <v>295.5243136089652</v>
+        <v>319.3718208751093</v>
       </c>
       <c r="F15" t="n">
-        <v>201.8784832918694</v>
+        <v>225.7259905580135</v>
       </c>
       <c r="G15" t="n">
-        <v>107.8247115094734</v>
+        <v>131.6722187756174</v>
       </c>
       <c r="H15" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792703</v>
       </c>
       <c r="I15" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792703</v>
       </c>
       <c r="J15" t="n">
-        <v>326.146107551374</v>
+        <v>349.9936148175181</v>
       </c>
       <c r="K15" t="n">
-        <v>326.146107551374</v>
+        <v>349.9936148175181</v>
       </c>
       <c r="L15" t="n">
-        <v>999.9477586646882</v>
+        <v>349.9936148175181</v>
       </c>
       <c r="M15" t="n">
-        <v>1316.97146190481</v>
+        <v>1318.908168349365</v>
       </c>
       <c r="N15" t="n">
-        <v>1316.97146190481</v>
+        <v>1804.964446033734</v>
       </c>
       <c r="O15" t="n">
-        <v>1316.97146190481</v>
+        <v>1804.964446033734</v>
       </c>
       <c r="P15" t="n">
-        <v>1316.97146190481</v>
+        <v>1804.964446033734</v>
       </c>
       <c r="Q15" t="n">
-        <v>1781.11693876759</v>
+        <v>1804.964446033734</v>
       </c>
       <c r="R15" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="S15" t="n">
-        <v>1781.812001413547</v>
+        <v>1805.659508679691</v>
       </c>
       <c r="T15" t="n">
-        <v>1639.932065711226</v>
+        <v>1663.77957297737</v>
       </c>
       <c r="U15" t="n">
-        <v>1455.163869630862</v>
+        <v>1479.011376897006</v>
       </c>
       <c r="V15" t="n">
-        <v>1250.190730770128</v>
+        <v>1274.038238036272</v>
       </c>
       <c r="W15" t="n">
-        <v>1053.669353603346</v>
+        <v>1077.51686086949</v>
       </c>
       <c r="X15" t="n">
-        <v>890.1920073700086</v>
+        <v>914.0395146361526</v>
       </c>
       <c r="Y15" t="n">
-        <v>750.499118723301</v>
+        <v>774.346625989445</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>468.6936525335126</v>
+        <v>1161.477248062164</v>
       </c>
       <c r="C16" t="n">
-        <v>468.6936525335126</v>
+        <v>989.5046849410799</v>
       </c>
       <c r="D16" t="n">
-        <v>468.6936525335126</v>
+        <v>826.1879120678506</v>
       </c>
       <c r="E16" t="n">
-        <v>468.6936525335126</v>
+        <v>659.9797062207041</v>
       </c>
       <c r="F16" t="n">
-        <v>464.2704247291205</v>
+        <v>488.1179319952645</v>
       </c>
       <c r="G16" t="n">
-        <v>298.0134550233526</v>
+        <v>321.8609622894967</v>
       </c>
       <c r="H16" t="n">
-        <v>154.217186531507</v>
+        <v>178.064693797651</v>
       </c>
       <c r="I16" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792703</v>
       </c>
       <c r="J16" t="n">
-        <v>111.939946495941</v>
+        <v>135.7874537620851</v>
       </c>
       <c r="K16" t="n">
-        <v>338.4675477017781</v>
+        <v>362.3150549679223</v>
       </c>
       <c r="L16" t="n">
-        <v>693.1568689961989</v>
+        <v>717.004376262343</v>
       </c>
       <c r="M16" t="n">
-        <v>1084.34266396645</v>
+        <v>1108.190171232594</v>
       </c>
       <c r="N16" t="n">
-        <v>1461.834174842485</v>
+        <v>1485.68168210863</v>
       </c>
       <c r="O16" t="n">
-        <v>1817.262303522249</v>
+        <v>1841.109810788393</v>
       </c>
       <c r="P16" t="n">
-        <v>2107.86151544415</v>
+        <v>2131.709022710294</v>
       </c>
       <c r="Q16" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="R16" t="n">
-        <v>2187.823032372085</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="S16" t="n">
-        <v>2017.687984891219</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="T16" t="n">
-        <v>1774.348637117119</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="U16" t="n">
-        <v>1494.164188617424</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="V16" t="n">
-        <v>1212.452721225452</v>
+        <v>2095.402285466169</v>
       </c>
       <c r="W16" t="n">
-        <v>937.6003173979655</v>
+        <v>1820.549881638682</v>
       </c>
       <c r="X16" t="n">
-        <v>695.0364208437705</v>
+        <v>1577.985985084488</v>
       </c>
       <c r="Y16" t="n">
-        <v>468.6936525335126</v>
+        <v>1351.64321677423</v>
       </c>
     </row>
     <row r="17">
@@ -5504,7 +5506,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5513,34 +5515,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2398.817321261059</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>3105.626261478504</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>3950.770911629316</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P17" t="n">
-        <v>4659.050190787244</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
         <v>4789.842805209199</v>
@@ -5555,7 +5557,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5598,22 +5600,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>855.0038060102931</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>1910.990343986338</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>537.3606176598659</v>
+        <v>437.5920494001418</v>
       </c>
       <c r="C19" t="n">
-        <v>365.3880545387819</v>
+        <v>265.6194862790578</v>
       </c>
       <c r="D19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2176.752350469914</v>
       </c>
       <c r="T19" t="n">
-        <v>2033.181570955538</v>
+        <v>1933.413002695814</v>
       </c>
       <c r="U19" t="n">
-        <v>1752.997122455842</v>
+        <v>1653.228554196118</v>
       </c>
       <c r="V19" t="n">
-        <v>1471.285655063871</v>
+        <v>1371.517086804147</v>
       </c>
       <c r="W19" t="n">
-        <v>1196.433251236384</v>
+        <v>1096.66468297666</v>
       </c>
       <c r="X19" t="n">
-        <v>953.8693546821894</v>
+        <v>854.1007864224655</v>
       </c>
       <c r="Y19" t="n">
-        <v>727.5265863719314</v>
+        <v>627.7580181122075</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5738,13 +5740,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5756,31 +5758,31 @@
         <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690842</v>
       </c>
       <c r="M20" t="n">
-        <v>2585.460682495986</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N20" t="n">
-        <v>3561.711740982687</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O20" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742372</v>
       </c>
       <c r="C21" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259877</v>
       </c>
       <c r="D21" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775162</v>
       </c>
       <c r="E21" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.5237350481</v>
       </c>
       <c r="F21" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731004</v>
       </c>
       <c r="G21" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948608</v>
       </c>
       <c r="H21" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>3896.932966279257</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>3896.932966279257</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>3896.932966279257</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>3896.932966279257</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>4786.414244290729</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R21" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S21" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852681</v>
       </c>
       <c r="T21" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.931487150359</v>
       </c>
       <c r="U21" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069996</v>
       </c>
       <c r="V21" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209263</v>
       </c>
       <c r="W21" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.66877504248</v>
       </c>
       <c r="X21" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809143</v>
       </c>
       <c r="Y21" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162435</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>326.3817789554925</v>
+        <v>3350.260042750951</v>
       </c>
       <c r="C22" t="n">
-        <v>154.4092158344085</v>
+        <v>3178.287479629867</v>
       </c>
       <c r="D22" t="n">
-        <v>154.4092158344085</v>
+        <v>3178.287479629867</v>
       </c>
       <c r="E22" t="n">
-        <v>154.4092158344085</v>
+        <v>3178.287479629867</v>
       </c>
       <c r="F22" t="n">
-        <v>154.4092158344085</v>
+        <v>3178.287479629867</v>
       </c>
       <c r="G22" t="n">
-        <v>154.4092158344085</v>
+        <v>3178.287479629867</v>
       </c>
       <c r="H22" t="n">
-        <v>154.4092158344085</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="I22" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L22" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M22" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N22" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O22" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>4897.962009497734</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>4654.622661723634</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>4374.438213223939</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>4092.726745831968</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>3817.874342004481</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778161</v>
+        <v>3575.310445450286</v>
       </c>
       <c r="Y22" t="n">
-        <v>516.5477476675582</v>
+        <v>3350.260042750951</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,13 +5977,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
@@ -5990,34 +5992,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>651.5495334576516</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L23" t="n">
-        <v>1581.174581076928</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M23" t="n">
-        <v>2585.460682495986</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N23" t="n">
-        <v>3561.711740982687</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O23" t="n">
-        <v>4406.8563911335</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6075,10 +6077,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O24" t="n">
         <v>1910.990343986338</v>
@@ -6124,16 +6126,16 @@
         <v>1185.483835930065</v>
       </c>
       <c r="C25" t="n">
-        <v>1013.511272808982</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357522</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886057</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G25" t="n">
         <v>345.8675501573982</v>
@@ -6145,10 +6147,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6175,19 +6177,19 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T25" t="n">
-        <v>2039.376393044857</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U25" t="n">
-        <v>1759.191944545161</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V25" t="n">
-        <v>1477.48047715319</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W25" t="n">
-        <v>1477.48047715319</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X25" t="n">
-        <v>1477.48047715319</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y25" t="n">
         <v>1375.649804642131</v>
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>1852.677416841655</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2856.963518260713</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>3833.214576747414</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6309,10 +6311,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N27" t="n">
         <v>1910.990343986338</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3158.801708427964</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C28" t="n">
-        <v>2986.82914530688</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D28" t="n">
-        <v>2934.722642878299</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E28" t="n">
-        <v>2934.722642878299</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F28" t="n">
-        <v>2934.722642878299</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G28" t="n">
-        <v>2934.722642878299</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H28" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>4897.962009497735</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>4654.622661723635</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U28" t="n">
-        <v>4374.43821322394</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V28" t="n">
-        <v>4092.726745831969</v>
+        <v>2001.004273426986</v>
       </c>
       <c r="W28" t="n">
-        <v>3817.874342004482</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X28" t="n">
-        <v>3575.310445450287</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y28" t="n">
-        <v>3348.967677140029</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,49 +6451,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>2110.0395278175</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>3086.290586304201</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6549,7 +6551,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N30" t="n">
         <v>1910.990343986338</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>982.4200707646526</v>
+        <v>941.9189991784957</v>
       </c>
       <c r="C31" t="n">
-        <v>810.4475076435685</v>
+        <v>769.9464360574117</v>
       </c>
       <c r="D31" t="n">
-        <v>647.1307347703392</v>
+        <v>606.6296631841824</v>
       </c>
       <c r="E31" t="n">
-        <v>480.9225289231928</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="F31" t="n">
-        <v>309.0607546977532</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G31" t="n">
-        <v>142.8037849919853</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058285</v>
@@ -6619,10 +6621,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6643,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T31" t="n">
-        <v>2235.67712750613</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U31" t="n">
-        <v>1955.492679006434</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V31" t="n">
-        <v>1673.781211614463</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="W31" t="n">
-        <v>1398.928807786976</v>
+        <v>1600.991632755014</v>
       </c>
       <c r="X31" t="n">
-        <v>1398.928807786976</v>
+        <v>1358.427736200819</v>
       </c>
       <c r="Y31" t="n">
-        <v>1172.586039476718</v>
+        <v>1132.084967890561</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6688,7 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G32" t="n">
         <v>435.0679631883225</v>
@@ -6701,34 +6703,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>195.4640539534684</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>1125.089101572745</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>2129.375202991803</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N32" t="n">
-        <v>3105.626261478504</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O32" t="n">
-        <v>3950.770911629316</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>4659.050190787244</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6789,7 +6791,7 @@
         <v>1158.289251381874</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O33" t="n">
         <v>1910.990343986338</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>345.8675501573982</v>
+        <v>3158.801708427963</v>
       </c>
       <c r="C34" t="n">
-        <v>345.8675501573982</v>
+        <v>2986.829145306879</v>
       </c>
       <c r="D34" t="n">
-        <v>345.8675501573982</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="E34" t="n">
-        <v>345.8675501573982</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="F34" t="n">
-        <v>345.8675501573982</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L34" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M34" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N34" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O34" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P34" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q34" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>4897.962009497734</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>4654.622661723634</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>4374.438213223939</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>4092.726745831968</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>3817.874342004481</v>
       </c>
       <c r="X34" t="n">
-        <v>742.8905159778161</v>
+        <v>3575.310445450286</v>
       </c>
       <c r="Y34" t="n">
-        <v>516.5477476675582</v>
+        <v>3348.967677140028</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6923,13 +6925,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
@@ -6938,34 +6940,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>102.3027134058285</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>1031.927761025105</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2036.213862444163</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
-        <v>3012.464920930865</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O35" t="n">
-        <v>3857.609571081677</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>4565.888850239604</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q35" t="n">
-        <v>5021.974329743787</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7017,19 +7019,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1582.26891798564</v>
       </c>
       <c r="P36" t="n">
         <v>1910.990343986338</v>
@@ -7069,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>919.5070618231949</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C37" t="n">
-        <v>747.5344987021109</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D37" t="n">
-        <v>584.2177258288816</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E37" t="n">
         <v>584.2177258288816</v>
@@ -7093,10 +7095,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U37" t="n">
-        <v>1578.579695399713</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V37" t="n">
-        <v>1578.579695399713</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="W37" t="n">
-        <v>1578.579695399713</v>
+        <v>1727.678888491774</v>
       </c>
       <c r="X37" t="n">
-        <v>1336.015798845518</v>
+        <v>1485.114991937579</v>
       </c>
       <c r="Y37" t="n">
-        <v>1109.673030535261</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>464.9061722227241</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L38" t="n">
-        <v>1007.532766690843</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7260,10 +7262,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>102.3027134058285</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N39" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O39" t="n">
         <v>1910.990343986338</v>
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>775.7107933313494</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C40" t="n">
-        <v>603.7382302102653</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D40" t="n">
-        <v>440.421457337036</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E40" t="n">
-        <v>440.421457337036</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F40" t="n">
-        <v>268.5596831115964</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7357,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>2045.188978316764</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U40" t="n">
-        <v>1765.004529817068</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V40" t="n">
-        <v>1483.293062425097</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W40" t="n">
-        <v>1208.44065859761</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X40" t="n">
-        <v>965.8767620434151</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y40" t="n">
-        <v>965.8767620434151</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1138.131726022408</v>
+        <v>1745.709374713351</v>
       </c>
       <c r="C41" t="n">
-        <v>1138.131726022408</v>
+        <v>1745.709374713351</v>
       </c>
       <c r="D41" t="n">
-        <v>940.446611191054</v>
+        <v>1666.501559393715</v>
       </c>
       <c r="E41" t="n">
-        <v>514.4696713389116</v>
+        <v>1240.524619541572</v>
       </c>
       <c r="F41" t="n">
-        <v>89.34548952831176</v>
+        <v>815.4004377309724</v>
       </c>
       <c r="G41" t="n">
-        <v>89.34548952831176</v>
+        <v>411.061375320421</v>
       </c>
       <c r="H41" t="n">
-        <v>89.34548952831176</v>
+        <v>113.1929967944558</v>
       </c>
       <c r="I41" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792703</v>
       </c>
       <c r="J41" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792703</v>
       </c>
       <c r="K41" t="n">
-        <v>728.2502693850971</v>
+        <v>793.8044335134261</v>
       </c>
       <c r="L41" t="n">
-        <v>1402.051920498411</v>
+        <v>1723.429481132703</v>
       </c>
       <c r="M41" t="n">
-        <v>1402.051920498411</v>
+        <v>2692.344034664549</v>
       </c>
       <c r="N41" t="n">
-        <v>1402.051920498411</v>
+        <v>2750.44151823424</v>
       </c>
       <c r="O41" t="n">
-        <v>2048.629262475834</v>
+        <v>2750.44151823424</v>
       </c>
       <c r="P41" t="n">
-        <v>2722.430913589148</v>
+        <v>3458.720797392168</v>
       </c>
       <c r="Q41" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.806276896351</v>
       </c>
       <c r="R41" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.806276896351</v>
       </c>
       <c r="S41" t="n">
-        <v>2618.063619462288</v>
+        <v>3810.438982769491</v>
       </c>
       <c r="T41" t="n">
-        <v>2618.063619462288</v>
+        <v>3589.513411814125</v>
       </c>
       <c r="U41" t="n">
-        <v>2359.7087100587</v>
+        <v>3331.158502410537</v>
       </c>
       <c r="V41" t="n">
-        <v>2359.7087100587</v>
+        <v>2973.669087536787</v>
       </c>
       <c r="W41" t="n">
-        <v>1963.317360359047</v>
+        <v>2577.277737837134</v>
       </c>
       <c r="X41" t="n">
-        <v>1963.317360359047</v>
+        <v>2165.557739004881</v>
       </c>
       <c r="Y41" t="n">
-        <v>1557.980090313938</v>
+        <v>2165.557739004881</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>621.5721093032382</v>
+        <v>645.4196165693822</v>
       </c>
       <c r="C42" t="n">
-        <v>504.066205820743</v>
+        <v>527.913713086887</v>
       </c>
       <c r="D42" t="n">
-        <v>400.226247336028</v>
+        <v>424.0737546021721</v>
       </c>
       <c r="E42" t="n">
-        <v>295.5243136089652</v>
+        <v>319.3718208751093</v>
       </c>
       <c r="F42" t="n">
-        <v>201.8784832918694</v>
+        <v>225.7259905580135</v>
       </c>
       <c r="G42" t="n">
-        <v>107.8247115094734</v>
+        <v>131.6722187756174</v>
       </c>
       <c r="H42" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792703</v>
       </c>
       <c r="I42" t="n">
-        <v>61.8952612336948</v>
+        <v>78.29612553792703</v>
       </c>
       <c r="J42" t="n">
-        <v>61.8952612336948</v>
+        <v>78.29612553792703</v>
       </c>
       <c r="K42" t="n">
-        <v>61.8952612336948</v>
+        <v>78.29612553792703</v>
       </c>
       <c r="L42" t="n">
-        <v>61.8952612336948</v>
+        <v>78.29612553792703</v>
       </c>
       <c r="M42" t="n">
-        <v>643.169810791496</v>
+        <v>997.5024781069651</v>
       </c>
       <c r="N42" t="n">
-        <v>1316.97146190481</v>
+        <v>997.5024781069651</v>
       </c>
       <c r="O42" t="n">
-        <v>1316.97146190481</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="P42" t="n">
-        <v>1316.97146190481</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="Q42" t="n">
-        <v>1781.11693876759</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="R42" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="S42" t="n">
-        <v>1781.812001413547</v>
+        <v>1805.659508679691</v>
       </c>
       <c r="T42" t="n">
-        <v>1639.932065711226</v>
+        <v>1663.77957297737</v>
       </c>
       <c r="U42" t="n">
-        <v>1455.163869630862</v>
+        <v>1479.011376897006</v>
       </c>
       <c r="V42" t="n">
-        <v>1250.190730770128</v>
+        <v>1274.038238036272</v>
       </c>
       <c r="W42" t="n">
-        <v>1053.669353603346</v>
+        <v>1077.51686086949</v>
       </c>
       <c r="X42" t="n">
-        <v>890.1920073700086</v>
+        <v>914.0395146361526</v>
       </c>
       <c r="Y42" t="n">
-        <v>750.499118723301</v>
+        <v>774.346625989445</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1020.75215978121</v>
+        <v>917.9124113105943</v>
       </c>
       <c r="C43" t="n">
-        <v>848.7795966601261</v>
+        <v>745.9398481895103</v>
       </c>
       <c r="D43" t="n">
-        <v>685.4628237868968</v>
+        <v>582.623075316281</v>
       </c>
       <c r="E43" t="n">
-        <v>636.1321989545601</v>
+        <v>416.4148694691345</v>
       </c>
       <c r="F43" t="n">
-        <v>464.2704247291205</v>
+        <v>244.5530952436949</v>
       </c>
       <c r="G43" t="n">
-        <v>298.0134550233526</v>
+        <v>78.29612553792703</v>
       </c>
       <c r="H43" t="n">
-        <v>154.217186531507</v>
+        <v>78.29612553792703</v>
       </c>
       <c r="I43" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792703</v>
       </c>
       <c r="J43" t="n">
-        <v>111.939946495941</v>
+        <v>135.7874537620851</v>
       </c>
       <c r="K43" t="n">
-        <v>338.4675477017781</v>
+        <v>362.3150549679223</v>
       </c>
       <c r="L43" t="n">
-        <v>693.1568689961989</v>
+        <v>717.004376262343</v>
       </c>
       <c r="M43" t="n">
-        <v>1084.34266396645</v>
+        <v>1108.190171232594</v>
       </c>
       <c r="N43" t="n">
-        <v>1461.834174842485</v>
+        <v>1485.68168210863</v>
       </c>
       <c r="O43" t="n">
-        <v>1817.262303522249</v>
+        <v>1841.109810788393</v>
       </c>
       <c r="P43" t="n">
-        <v>2107.86151544415</v>
+        <v>2131.709022710294</v>
       </c>
       <c r="Q43" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="R43" t="n">
-        <v>2234.861645684911</v>
+        <v>2211.670539638229</v>
       </c>
       <c r="S43" t="n">
-        <v>2234.861645684911</v>
+        <v>2211.670539638229</v>
       </c>
       <c r="T43" t="n">
-        <v>2234.861645684911</v>
+        <v>1968.331191864128</v>
       </c>
       <c r="U43" t="n">
-        <v>1954.677197185216</v>
+        <v>1688.146743364433</v>
       </c>
       <c r="V43" t="n">
-        <v>1954.677197185216</v>
+        <v>1688.146743364433</v>
       </c>
       <c r="W43" t="n">
-        <v>1679.824793357729</v>
+        <v>1576.985044887113</v>
       </c>
       <c r="X43" t="n">
-        <v>1437.260896803534</v>
+        <v>1334.421148332918</v>
       </c>
       <c r="Y43" t="n">
-        <v>1210.918128493276</v>
+        <v>1108.07838002266</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>904.6419690734826</v>
+        <v>1850.076668840211</v>
       </c>
       <c r="C44" t="n">
-        <v>477.7412390867827</v>
+        <v>1850.076668840211</v>
       </c>
       <c r="D44" t="n">
-        <v>54.44861827178296</v>
+        <v>1426.784048025211</v>
       </c>
       <c r="E44" t="n">
-        <v>54.44861827178296</v>
+        <v>1240.524619541572</v>
       </c>
       <c r="F44" t="n">
-        <v>54.44861827178296</v>
+        <v>815.4004377309724</v>
       </c>
       <c r="G44" t="n">
-        <v>54.44861827178296</v>
+        <v>411.061375320421</v>
       </c>
       <c r="H44" t="n">
-        <v>54.44861827178296</v>
+        <v>113.1929967944558</v>
       </c>
       <c r="I44" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792703</v>
       </c>
       <c r="J44" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792703</v>
       </c>
       <c r="K44" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792703</v>
       </c>
       <c r="L44" t="n">
-        <v>728.2502693850971</v>
+        <v>78.29612553792703</v>
       </c>
       <c r="M44" t="n">
-        <v>1402.051920498411</v>
+        <v>936.382314551581</v>
       </c>
       <c r="N44" t="n">
-        <v>2075.853571611725</v>
+        <v>1905.296868083428</v>
       </c>
       <c r="O44" t="n">
-        <v>2148.789099203062</v>
+        <v>2750.44151823424</v>
       </c>
       <c r="P44" t="n">
-        <v>2148.789099203062</v>
+        <v>3458.720797392168</v>
       </c>
       <c r="Q44" t="n">
-        <v>2604.874578707245</v>
+        <v>3914.806276896351</v>
       </c>
       <c r="R44" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.806276896351</v>
       </c>
       <c r="S44" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.806276896351</v>
       </c>
       <c r="T44" t="n">
-        <v>2501.505342633781</v>
+        <v>3693.880705940984</v>
       </c>
       <c r="U44" t="n">
-        <v>2243.150433230194</v>
+        <v>3435.525796537397</v>
       </c>
       <c r="V44" t="n">
-        <v>1885.661018356443</v>
+        <v>3078.036381663646</v>
       </c>
       <c r="W44" t="n">
-        <v>1489.26966865679</v>
+        <v>2681.645031963993</v>
       </c>
       <c r="X44" t="n">
-        <v>1489.26966865679</v>
+        <v>2269.925033131741</v>
       </c>
       <c r="Y44" t="n">
-        <v>1083.932398611681</v>
+        <v>2269.925033131741</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>621.5721093032382</v>
+        <v>645.4196165693822</v>
       </c>
       <c r="C45" t="n">
-        <v>504.066205820743</v>
+        <v>527.913713086887</v>
       </c>
       <c r="D45" t="n">
-        <v>400.226247336028</v>
+        <v>424.0737546021721</v>
       </c>
       <c r="E45" t="n">
-        <v>295.5243136089652</v>
+        <v>319.3718208751093</v>
       </c>
       <c r="F45" t="n">
-        <v>201.8784832918694</v>
+        <v>225.7259905580135</v>
       </c>
       <c r="G45" t="n">
-        <v>107.8247115094734</v>
+        <v>131.6722187756174</v>
       </c>
       <c r="H45" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792703</v>
       </c>
       <c r="I45" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792703</v>
       </c>
       <c r="J45" t="n">
-        <v>54.44861827178296</v>
+        <v>349.9936148175181</v>
       </c>
       <c r="K45" t="n">
-        <v>54.44861827178296</v>
+        <v>940.4785413858576</v>
       </c>
       <c r="L45" t="n">
-        <v>728.2502693850971</v>
+        <v>1422.838279255657</v>
       </c>
       <c r="M45" t="n">
-        <v>1402.051920498411</v>
+        <v>1422.838279255657</v>
       </c>
       <c r="N45" t="n">
-        <v>1863.136248852293</v>
+        <v>1422.838279255657</v>
       </c>
       <c r="O45" t="n">
-        <v>1863.136248852293</v>
+        <v>1422.838279255657</v>
       </c>
       <c r="P45" t="n">
-        <v>1863.136248852293</v>
+        <v>1422.838279255657</v>
       </c>
       <c r="Q45" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="R45" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="S45" t="n">
-        <v>1781.812001413547</v>
+        <v>1805.659508679691</v>
       </c>
       <c r="T45" t="n">
-        <v>1639.932065711226</v>
+        <v>1663.77957297737</v>
       </c>
       <c r="U45" t="n">
-        <v>1455.163869630862</v>
+        <v>1479.011376897006</v>
       </c>
       <c r="V45" t="n">
-        <v>1250.190730770128</v>
+        <v>1274.038238036272</v>
       </c>
       <c r="W45" t="n">
-        <v>1053.669353603346</v>
+        <v>1077.51686086949</v>
       </c>
       <c r="X45" t="n">
-        <v>890.1920073700086</v>
+        <v>914.0395146361526</v>
       </c>
       <c r="Y45" t="n">
-        <v>750.499118723301</v>
+        <v>774.346625989445</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1137.62974079602</v>
+        <v>519.5488518812829</v>
       </c>
       <c r="C46" t="n">
-        <v>965.6571776749358</v>
+        <v>347.5762887601988</v>
       </c>
       <c r="D46" t="n">
-        <v>802.3404048017065</v>
+        <v>347.5762887601988</v>
       </c>
       <c r="E46" t="n">
-        <v>636.1321989545601</v>
+        <v>347.5762887601988</v>
       </c>
       <c r="F46" t="n">
-        <v>464.2704247291205</v>
+        <v>175.7145145347593</v>
       </c>
       <c r="G46" t="n">
-        <v>298.0134550233526</v>
+        <v>78.29612553792703</v>
       </c>
       <c r="H46" t="n">
-        <v>154.217186531507</v>
+        <v>78.29612553792703</v>
       </c>
       <c r="I46" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792703</v>
       </c>
       <c r="J46" t="n">
-        <v>111.939946495941</v>
+        <v>135.7874537620851</v>
       </c>
       <c r="K46" t="n">
-        <v>338.4675477017781</v>
+        <v>362.3150549679223</v>
       </c>
       <c r="L46" t="n">
-        <v>693.1568689961989</v>
+        <v>717.004376262343</v>
       </c>
       <c r="M46" t="n">
-        <v>1084.34266396645</v>
+        <v>1108.190171232594</v>
       </c>
       <c r="N46" t="n">
-        <v>1461.834174842485</v>
+        <v>1485.68168210863</v>
       </c>
       <c r="O46" t="n">
-        <v>1817.262303522249</v>
+        <v>1841.109810788393</v>
       </c>
       <c r="P46" t="n">
-        <v>2107.86151544415</v>
+        <v>2131.709022710294</v>
       </c>
       <c r="Q46" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="R46" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="S46" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="T46" t="n">
-        <v>2234.861645684911</v>
+        <v>2015.369805176955</v>
       </c>
       <c r="U46" t="n">
-        <v>2234.861645684911</v>
+        <v>1735.18535667726</v>
       </c>
       <c r="V46" t="n">
-        <v>2071.554778200025</v>
+        <v>1453.473889285288</v>
       </c>
       <c r="W46" t="n">
-        <v>1796.702374372538</v>
+        <v>1178.621485457801</v>
       </c>
       <c r="X46" t="n">
-        <v>1554.138477818344</v>
+        <v>936.0575889036064</v>
       </c>
       <c r="Y46" t="n">
-        <v>1327.795709508086</v>
+        <v>709.7148205933485</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>716.3723291920963</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>230.7280651328647</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M2" t="n">
-        <v>718.0389912967188</v>
+        <v>86.17533235500345</v>
       </c>
       <c r="N2" t="n">
-        <v>717.8873512317331</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>467.0051119838363</v>
       </c>
       <c r="L3" t="n">
-        <v>206.2930625853188</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>703.704508909615</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204227</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8219,25 +8221,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>718.9197708299099</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M5" t="n">
-        <v>718.0389912967188</v>
+        <v>1016.13283212352</v>
       </c>
       <c r="N5" t="n">
-        <v>717.8873512317331</v>
+        <v>425.7105530350123</v>
       </c>
       <c r="O5" t="n">
-        <v>571.7556129878624</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,28 +8291,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>564.8932785697289</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>105.0107851302144</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8450,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>716.3723291920963</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>718.9197708299099</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>571.7959165312701</v>
+        <v>1016.13283212352</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>1015.981192058534</v>
       </c>
       <c r="O8" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>616.7436450881303</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
@@ -8532,16 +8534,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L9" t="n">
-        <v>488.256832526231</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>703.704508909615</v>
+        <v>192.0552051543685</v>
       </c>
       <c r="N9" t="n">
-        <v>701.9507566108286</v>
+        <v>1000.044597437629</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
@@ -8553,7 +8555,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,22 +8689,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>718.9197708299099</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>690.5396891392526</v>
+        <v>1016.13283212352</v>
       </c>
       <c r="N11" t="n">
-        <v>717.8873512317331</v>
+        <v>787.0800758980854</v>
       </c>
       <c r="O11" t="n">
-        <v>717.9986877533111</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
         <v>37.5753618102313</v>
@@ -8711,7 +8713,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,19 +8768,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>488.256832526231</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>703.704508909615</v>
+        <v>596.9105055315923</v>
       </c>
       <c r="N12" t="n">
-        <v>701.9507566108286</v>
+        <v>1000.044597437629</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>716.3723291920963</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>718.9197708299099</v>
+        <v>786.3219961010584</v>
       </c>
       <c r="M14" t="n">
-        <v>205.5297965142038</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>37.27962283444602</v>
+        <v>1015.981192058534</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>718.1830902075183</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9009,13 +9011,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>703.1228151115166</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>343.3227433811381</v>
+        <v>1001.798349736416</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>512.3089652684594</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
@@ -9024,7 +9026,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
         <v>106.5207073584907</v>
@@ -9164,7 +9166,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
@@ -9173,19 +9175,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>751.2280472965118</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>100.0581876036184</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,13 +9248,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>782.8192206581333</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
         <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>229.9655591801901</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9261,10 +9263,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,10 +9406,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>977.3272420480539</v>
+        <v>229.9501690078898</v>
       </c>
       <c r="M20" t="n">
-        <v>883.9207714806259</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9419,10 +9421,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,22 +9482,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>353.8126856499778</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9638,7 +9640,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
@@ -9653,7 +9655,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
@@ -9723,13 +9725,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
@@ -9872,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>717.3655137896245</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9887,13 +9889,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>466.3243076206841</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9957,13 +9959,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>749.1541615704315</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10118,22 +10120,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>791.8596365713911</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,10 +10199,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10349,7 +10351,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>129.8669649843445</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10364,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>466.3243076206841</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10437,10 +10439,10 @@
         <v>1089.749849175</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10586,7 +10588,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10601,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>129.1350140843319</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,22 +10667,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>353.8126856499787</v>
       </c>
       <c r="Q36" t="n">
         <v>22.7470382889785</v>
@@ -10820,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>586.4197136125407</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
@@ -10838,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,13 +10910,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N39" t="n">
-        <v>949.8342934347922</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
@@ -11060,25 +11062,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>718.9197708299099</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>1016.13283212352</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>95.9639496725174</v>
       </c>
       <c r="O41" t="n">
-        <v>690.4993855958451</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
-        <v>718.1830902075183</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>35.03264989479647</v>
@@ -11133,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
         <v>20.61111433333334</v>
@@ -11145,22 +11147,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>610.2427901666728</v>
+        <v>951.5880457335785</v>
       </c>
       <c r="N42" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,25 +11302,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>718.9197708299099</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M44" t="n">
-        <v>718.0389912967188</v>
+        <v>904.1849891758499</v>
       </c>
       <c r="N44" t="n">
-        <v>717.8873512317331</v>
+        <v>1015.981192058534</v>
       </c>
       <c r="O44" t="n">
-        <v>111.0632094482834</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,19 +11375,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>703.1228151115166</v>
+        <v>509.7471451685728</v>
       </c>
       <c r="M45" t="n">
-        <v>703.704508909615</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>487.0847740255433</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
@@ -11394,7 +11396,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -22544,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>181.7396626967978</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,16 +22558,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,16 +22597,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>4.029716041659611</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -22702,19 +22704,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>48.2713066629224</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
@@ -22753,10 +22755,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>59.64236734312252</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22796,13 +22798,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,10 +22834,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>75.5585671963307</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
@@ -22844,13 +22846,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>232.8337600059324</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22960,7 +22962,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22996,10 +22998,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>16.93792262753476</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23027,19 +23029,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>350.5236211876766</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>331.502687215195</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -23078,16 +23080,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23176,25 +23178,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -23224,13 +23226,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>158.4132499202494</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -23242,7 +23244,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>165.764160956837</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>68.09031360009112</v>
       </c>
       <c r="Y11" t="n">
-        <v>267.5156322128095</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
@@ -23473,10 +23475,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W13" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,16 +23554,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>347.6257994786278</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.736818507650526</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>165.764160956837</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>63.52994056050434</v>
       </c>
       <c r="T19" t="n">
-        <v>208.8690503173293</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>47.18544517283262</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1.279441954813848</v>
       </c>
     </row>
     <row r="23">
@@ -24415,22 +24417,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>123.2669748412072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>110.098167740202</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24853,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>102.262244936632</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24883,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>115.4855711169666</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.29091348988666</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>110.098167740202</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
@@ -25090,10 +25092,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25318,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>36.19579753176168</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>16.93792262753476</v>
       </c>
     </row>
     <row r="38">
@@ -25555,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,16 +25599,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>174.1881564252442</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25631,7 +25633,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>223.3514309238097</v>
+        <v>340.6439574404096</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25679,22 +25681,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25792,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>115.7088052046616</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,7 +25848,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>162.0537982966653</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>238.1523554057988</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>237.3203362548185</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25928,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>68.15019490184626</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,13 +26076,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>491107.0567823882</v>
+        <v>441079.9125652437</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>491107.0567823884</v>
+        <v>611004.0958783773</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>491107.0567823884</v>
+        <v>611004.0958783771</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>491107.0567823882</v>
+        <v>611004.0958783773</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>491107.0567823884</v>
+        <v>611004.0958783776</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>731700.9373568732</v>
+        <v>731700.9373568731</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>731700.9373568732</v>
+        <v>731700.9373568731</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>731700.9373568731</v>
+        <v>731700.9373568732</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>731700.9373568731</v>
+        <v>731700.9373568732</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>731700.9373568731</v>
+        <v>731700.9373568732</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>491107.0567823882</v>
+        <v>611004.0958783776</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>491107.0567823884</v>
+        <v>611004.0958783773</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>207485.7353817734</v>
+        <v>186353.4106584144</v>
       </c>
       <c r="C2" t="n">
-        <v>207485.7353817733</v>
+        <v>258132.3034238761</v>
       </c>
       <c r="D2" t="n">
-        <v>207485.7353817734</v>
+        <v>258132.3034238762</v>
       </c>
       <c r="E2" t="n">
-        <v>207485.7353817733</v>
+        <v>258132.3034238761</v>
       </c>
       <c r="F2" t="n">
-        <v>207485.7353817734</v>
+        <v>258132.3034238762</v>
       </c>
       <c r="G2" t="n">
-        <v>309116.7217255961</v>
+        <v>309116.7217255959</v>
       </c>
       <c r="H2" t="n">
+        <v>309116.721725596</v>
+      </c>
+      <c r="I2" t="n">
         <v>309116.7217255959</v>
-      </c>
-      <c r="I2" t="n">
-        <v>309116.721725596</v>
       </c>
       <c r="J2" t="n">
         <v>309116.7217255961</v>
       </c>
       <c r="K2" t="n">
+        <v>309116.7217255958</v>
+      </c>
+      <c r="L2" t="n">
         <v>309116.721725596</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>309116.7217255959</v>
-      </c>
-      <c r="M2" t="n">
-        <v>309116.7217255961</v>
       </c>
       <c r="N2" t="n">
         <v>309116.7217255959</v>
       </c>
       <c r="O2" t="n">
-        <v>207485.7353817734</v>
+        <v>258132.3034238761</v>
       </c>
       <c r="P2" t="n">
-        <v>207485.7353817734</v>
+        <v>258132.3034238762</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>228087.303763684</v>
+        <v>186404.7334147372</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>136488.8862029678</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>163951.1208101861</v>
+        <v>82248.07044717233</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>178076.9284887798</v>
+        <v>145533.6699348165</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>108731.2256621308</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38928.16391746106</v>
+        <v>34949.1061971525</v>
       </c>
       <c r="C4" t="n">
-        <v>38928.16391746108</v>
+        <v>48464.53155392383</v>
       </c>
       <c r="D4" t="n">
-        <v>38928.16391746106</v>
+        <v>48464.53155392383</v>
       </c>
       <c r="E4" t="n">
-        <v>38928.16391746106</v>
+        <v>48464.53155392382</v>
       </c>
       <c r="F4" t="n">
-        <v>38928.16391746106</v>
+        <v>48464.53155392383</v>
       </c>
       <c r="G4" t="n">
         <v>58064.51385187964</v>
       </c>
       <c r="H4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187963</v>
       </c>
       <c r="I4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187963</v>
       </c>
       <c r="J4" t="n">
         <v>58064.51385187964</v>
       </c>
       <c r="K4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187963</v>
       </c>
       <c r="L4" t="n">
         <v>58064.51385187964</v>
       </c>
       <c r="M4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187962</v>
       </c>
       <c r="N4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187963</v>
       </c>
       <c r="O4" t="n">
-        <v>38928.16391746106</v>
+        <v>48464.53155392382</v>
       </c>
       <c r="P4" t="n">
-        <v>38928.16391746107</v>
+        <v>48464.53155392383</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742811</v>
       </c>
       <c r="C5" t="n">
-        <v>75008.54988655505</v>
+        <v>93132.65540882453</v>
       </c>
       <c r="D5" t="n">
-        <v>75008.54988655505</v>
+        <v>93132.65540882453</v>
       </c>
       <c r="E5" t="n">
-        <v>41380.94988655505</v>
+        <v>59505.05540882453</v>
       </c>
       <c r="F5" t="n">
-        <v>41380.94988655505</v>
+        <v>59505.05540882453</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>41380.94988655505</v>
+        <v>59505.05540882453</v>
       </c>
       <c r="P5" t="n">
-        <v>41380.94988655505</v>
+        <v>59505.05540882453</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-134538.2821859267</v>
+        <v>-102446.6799909035</v>
       </c>
       <c r="C6" t="n">
-        <v>93549.02157775722</v>
+        <v>-19953.76974183996</v>
       </c>
       <c r="D6" t="n">
-        <v>93549.0215777573</v>
+        <v>116535.1164611278</v>
       </c>
       <c r="E6" t="n">
-        <v>127176.6215777572</v>
+        <v>150162.7164611277</v>
       </c>
       <c r="F6" t="n">
-        <v>127176.6215777573</v>
+        <v>150162.7164611279</v>
       </c>
       <c r="G6" t="n">
-        <v>9351.024875100687</v>
+        <v>91054.07523811425</v>
       </c>
       <c r="H6" t="n">
+        <v>173302.1456852867</v>
+      </c>
+      <c r="I6" t="n">
         <v>173302.1456852866</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
+        <v>27768.47575047027</v>
+      </c>
+      <c r="K6" t="n">
+        <v>64570.92002315575</v>
+      </c>
+      <c r="L6" t="n">
         <v>173302.1456852867</v>
       </c>
-      <c r="J6" t="n">
-        <v>-4774.782803493057</v>
-      </c>
-      <c r="K6" t="n">
-        <v>173302.1456852867</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>173302.1456852866</v>
-      </c>
-      <c r="M6" t="n">
-        <v>173302.1456852867</v>
       </c>
       <c r="N6" t="n">
         <v>173302.1456852866</v>
       </c>
       <c r="O6" t="n">
-        <v>127176.6215777573</v>
+        <v>150162.7164611278</v>
       </c>
       <c r="P6" t="n">
-        <v>127176.6215777572</v>
+        <v>150162.7164611279</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="C4" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240877</v>
       </c>
       <c r="D4" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240877</v>
       </c>
       <c r="E4" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240877</v>
       </c>
       <c r="F4" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240877</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240877</v>
       </c>
       <c r="P4" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240877</v>
       </c>
     </row>
   </sheetData>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>422.4737561084937</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>598.1761891755698</v>
+        <v>300.0823483487689</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.6077283972871</v>
+        <v>556.227813115594</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>422.4737561084937</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>422.4737561084937</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>598.1761891755698</v>
+        <v>300.0823483487689</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>192.4160227002418</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M2" t="n">
-        <v>680.607728397287</v>
+        <v>48.74406945557163</v>
       </c>
       <c r="N2" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>444.605878150503</v>
       </c>
       <c r="L3" t="n">
-        <v>183.7779758710892</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34939,25 +34941,25 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>680.607728397287</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M5" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240877</v>
       </c>
       <c r="N5" t="n">
-        <v>680.607728397287</v>
+        <v>388.4309302005663</v>
       </c>
       <c r="O5" t="n">
-        <v>534.3646536318383</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,28 +35011,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>542.3781918554993</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>83.23994392538575</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>534.3646536318383</v>
+        <v>978.7015692240877</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>978.7015692240877</v>
       </c>
       <c r="O8" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>579.1682832778989</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L9" t="n">
-        <v>465.7417458120015</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>680.607728397287</v>
+        <v>168.9584246420405</v>
       </c>
       <c r="N9" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240877</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35273,7 +35275,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>680.607728397287</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>653.1084262398208</v>
+        <v>978.7015692240877</v>
       </c>
       <c r="N11" t="n">
-        <v>680.607728397287</v>
+        <v>749.8004530636393</v>
       </c>
       <c r="O11" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35431,7 +35433,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>465.7417458120015</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>680.607728397287</v>
+        <v>573.8137250192643</v>
       </c>
       <c r="N12" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240877</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>680.607728397287</v>
+        <v>748.0099536684355</v>
       </c>
       <c r="M14" t="n">
-        <v>168.098533614772</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>978.7015692240877</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>680.607728397287</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35729,13 +35731,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>320.2259628688101</v>
+        <v>978.7015692240877</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>490.9659370549177</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35744,7 +35746,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>82.84778796434657</v>
@@ -35884,7 +35886,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
@@ -35893,19 +35895,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>713.9484244620658</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>62.48282579338712</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,13 +35968,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>760.3041339439037</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>208.6225309666485</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35981,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36124,10 +36126,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>939.015199615431</v>
+        <v>191.6381265752669</v>
       </c>
       <c r="M20" t="n">
-        <v>846.4895085811942</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36139,10 +36141,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>332.0418444451491</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36358,7 +36360,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
@@ -36373,7 +36375,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36592,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>679.0534713570016</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36607,13 +36609,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>428.7489458104528</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>118.7437726079824</v>
@@ -36677,13 +36679,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36838,22 +36840,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>754.4686772153671</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,10 +36919,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>94.10236418953517</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37084,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>428.7489458104528</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37157,10 +37159,10 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>760.3041339439036</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37321,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>94.10236418953542</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>332.04184444515</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37540,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>548.1076711799178</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
@@ -37558,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,13 +37630,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N39" t="n">
-        <v>928.4912652212506</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37780,25 +37782,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>680.607728397287</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>978.7015692240877</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>58.68432683807138</v>
       </c>
       <c r="O41" t="n">
-        <v>653.1084262398209</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>680.607728397287</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37865,22 +37867,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>587.1460096543448</v>
+        <v>928.4912652212505</v>
       </c>
       <c r="N42" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38020,25 +38022,25 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>680.607728397287</v>
+        <v>866.7537262764181</v>
       </c>
       <c r="N44" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240877</v>
       </c>
       <c r="O44" t="n">
-        <v>73.67225009225932</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>680.607728397287</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="M45" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>465.7417458120016</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>750464.5339221579</v>
+        <v>748453.820894517</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2713959.118571166</v>
+        <v>2713959.118571169</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7589823.15919814</v>
+        <v>7589823.159198139</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>309.8372739256562</v>
       </c>
       <c r="C2" t="n">
-        <v>240.892059990035</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>420.8729399924937</v>
@@ -712,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -822,16 +822,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>49.87597792716609</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>181.2635869532365</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
@@ -913,7 +913,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>6.101690168825534</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>159.5936761967242</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1059,22 +1059,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>96.44420510686396</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
@@ -1144,16 +1144,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>89.37025277729876</v>
+        <v>94.59496585603873</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1305,13 +1305,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
@@ -1353,10 +1353,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>200.1143878900198</v>
       </c>
       <c r="X10" t="n">
-        <v>74.37409663181596</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1378,16 +1378,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>93.68041362282689</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -1435,10 +1435,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>339.5124852438391</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1533,22 +1533,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>115.1055716303386</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -1627,7 +1627,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
@@ -1672,10 +1672,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>59.97699936530243</v>
+        <v>274.4621152637966</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1770,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>200.1143878900198</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1864,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396345</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2007,13 +2007,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>104.9037564455521</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
@@ -2307,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.7998986723415</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2481,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2718,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>154.8833258811978</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2955,16 +2955,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3009,10 +3009,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>156.6183086722455</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3192,13 +3192,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>51.58543740429501</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3429,19 +3429,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>207.1414179996206</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3742,10 +3742,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>78.41573716644007</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -3757,7 +3757,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>62.05593473477047</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -3808,7 +3808,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3903,16 +3903,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3957,10 +3957,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>110.0500814925468</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3979,25 +3979,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>184.3968341988025</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>108.1342755977009</v>
       </c>
       <c r="G44" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4149,7 +4149,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>96.44420510686392</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1966.556343058788</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="C2" t="n">
-        <v>1723.231029937541</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="D2" t="n">
-        <v>1299.938409122541</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="E2" t="n">
         <v>873.9614692703988</v>
@@ -4321,61 +4321,61 @@
         <v>448.8372874597989</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K2" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L2" t="n">
-        <v>957.7672188505811</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M2" t="n">
-        <v>1006.023847611597</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N2" t="n">
-        <v>1556.689382596035</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="O2" t="n">
-        <v>2107.354917580473</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P2" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462376</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U2" t="n">
-        <v>1966.556343058788</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V2" t="n">
-        <v>1966.556343058788</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="W2" t="n">
-        <v>1966.556343058788</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="X2" t="n">
-        <v>1966.556343058788</v>
+        <v>1592.265682674757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1966.556343058788</v>
+        <v>1186.928412629647</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>416.2236218818665</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J3" t="n">
-        <v>687.9211111614576</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K3" t="n">
-        <v>1128.080930530456</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="L3" t="n">
-        <v>1128.080930530456</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="M3" t="n">
-        <v>1128.080930530456</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="N3" t="n">
-        <v>1128.080930530456</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O3" t="n">
-        <v>1128.080930530456</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P3" t="n">
-        <v>1678.746465514894</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q3" t="n">
-        <v>2142.891942377673</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
-        <v>2224.911252462376</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>545.9957668907073</v>
+        <v>438.7123380797772</v>
       </c>
       <c r="C4" t="n">
-        <v>374.0232037696233</v>
+        <v>266.7397749586933</v>
       </c>
       <c r="D4" t="n">
-        <v>210.706430896394</v>
+        <v>266.7397749586933</v>
       </c>
       <c r="E4" t="n">
-        <v>44.49822504924752</v>
+        <v>266.7397749586933</v>
       </c>
       <c r="F4" t="n">
-        <v>44.49822504924752</v>
+        <v>94.87800073325369</v>
       </c>
       <c r="G4" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H4" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734058</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792431</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736639</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
         <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T4" t="n">
-        <v>2041.81672018638</v>
+        <v>1934.53329137545</v>
       </c>
       <c r="U4" t="n">
-        <v>1761.632271686684</v>
+        <v>1654.348842875754</v>
       </c>
       <c r="V4" t="n">
-        <v>1479.920804294713</v>
+        <v>1372.637375483783</v>
       </c>
       <c r="W4" t="n">
-        <v>1205.068400467226</v>
+        <v>1097.784971656296</v>
       </c>
       <c r="X4" t="n">
-        <v>962.5045039130309</v>
+        <v>855.2210751021008</v>
       </c>
       <c r="Y4" t="n">
-        <v>736.161735602773</v>
+        <v>628.8783067918429</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2516.694910195414</v>
+        <v>2218.826531669449</v>
       </c>
       <c r="C5" t="n">
-        <v>2089.794180208714</v>
+        <v>1791.925801682749</v>
       </c>
       <c r="D5" t="n">
-        <v>1666.501559393715</v>
+        <v>1368.633180867749</v>
       </c>
       <c r="E5" t="n">
-        <v>1240.524619541572</v>
+        <v>942.656241015607</v>
       </c>
       <c r="F5" t="n">
-        <v>815.4004377309724</v>
+        <v>517.5320592050072</v>
       </c>
       <c r="G5" t="n">
-        <v>411.061375320421</v>
+        <v>113.1929967944558</v>
       </c>
       <c r="H5" t="n">
         <v>113.1929967944558</v>
       </c>
       <c r="I5" t="n">
-        <v>78.29612553792703</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J5" t="n">
-        <v>78.29612553792703</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="K5" t="n">
-        <v>78.29612553792703</v>
+        <v>793.804433513426</v>
       </c>
       <c r="L5" t="n">
-        <v>1007.921173157204</v>
+        <v>1723.429481132703</v>
       </c>
       <c r="M5" t="n">
-        <v>1976.83572668905</v>
+        <v>1723.429481132703</v>
       </c>
       <c r="N5" t="n">
-        <v>2361.382347587611</v>
+        <v>1787.740533201523</v>
       </c>
       <c r="O5" t="n">
-        <v>3206.526997738423</v>
+        <v>2632.885183352335</v>
       </c>
       <c r="P5" t="n">
-        <v>3914.806276896351</v>
+        <v>3341.164462510263</v>
       </c>
       <c r="Q5" t="n">
-        <v>3914.806276896351</v>
+        <v>3797.249942014446</v>
       </c>
       <c r="R5" t="n">
-        <v>3914.806276896351</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="S5" t="n">
-        <v>3914.806276896351</v>
+        <v>3810.438982769489</v>
       </c>
       <c r="T5" t="n">
-        <v>3914.806276896351</v>
+        <v>3810.438982769489</v>
       </c>
       <c r="U5" t="n">
-        <v>3914.806276896351</v>
+        <v>3804.275659366635</v>
       </c>
       <c r="V5" t="n">
-        <v>3914.806276896351</v>
+        <v>3446.786244492885</v>
       </c>
       <c r="W5" t="n">
-        <v>3753.600543364306</v>
+        <v>3050.394894793232</v>
       </c>
       <c r="X5" t="n">
-        <v>3341.880544532054</v>
+        <v>2638.674895960979</v>
       </c>
       <c r="Y5" t="n">
-        <v>2936.543274486944</v>
+        <v>2638.674895960979</v>
       </c>
     </row>
     <row r="6">
@@ -4628,43 +4628,43 @@
         <v>527.913713086887</v>
       </c>
       <c r="D6" t="n">
-        <v>424.0737546021721</v>
+        <v>424.073754602172</v>
       </c>
       <c r="E6" t="n">
-        <v>319.3718208751093</v>
+        <v>319.3718208751092</v>
       </c>
       <c r="F6" t="n">
-        <v>225.7259905580135</v>
+        <v>225.7259905580134</v>
       </c>
       <c r="G6" t="n">
         <v>131.6722187756174</v>
       </c>
       <c r="H6" t="n">
-        <v>78.29612553792703</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I6" t="n">
-        <v>78.29612553792703</v>
+        <v>85.74276849983882</v>
       </c>
       <c r="J6" t="n">
-        <v>78.29612553792703</v>
+        <v>357.4402577794299</v>
       </c>
       <c r="K6" t="n">
-        <v>78.29612553792703</v>
+        <v>947.9251843477695</v>
       </c>
       <c r="L6" t="n">
-        <v>915.0949336208332</v>
+        <v>1422.838279255657</v>
       </c>
       <c r="M6" t="n">
-        <v>915.0949336208332</v>
+        <v>1422.838279255657</v>
       </c>
       <c r="N6" t="n">
-        <v>915.0949336208332</v>
+        <v>1422.838279255657</v>
       </c>
       <c r="O6" t="n">
-        <v>1804.576211632305</v>
+        <v>1422.838279255657</v>
       </c>
       <c r="P6" t="n">
-        <v>1886.983756118437</v>
+        <v>1422.838279255657</v>
       </c>
       <c r="Q6" t="n">
         <v>1886.983756118437</v>
@@ -4701,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1161.477248062164</v>
+        <v>519.5488518812829</v>
       </c>
       <c r="C7" t="n">
-        <v>989.5046849410799</v>
+        <v>347.5762887601988</v>
       </c>
       <c r="D7" t="n">
-        <v>826.1879120678506</v>
+        <v>347.5762887601988</v>
       </c>
       <c r="E7" t="n">
-        <v>659.9797062207041</v>
+        <v>347.5762887601988</v>
       </c>
       <c r="F7" t="n">
-        <v>488.1179319952645</v>
+        <v>175.7145145347593</v>
       </c>
       <c r="G7" t="n">
-        <v>321.8609622894967</v>
+        <v>175.7145145347593</v>
       </c>
       <c r="H7" t="n">
-        <v>178.064693797651</v>
+        <v>175.7145145347593</v>
       </c>
       <c r="I7" t="n">
-        <v>78.29612553792703</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J7" t="n">
-        <v>135.7874537620851</v>
+        <v>135.787453762085</v>
       </c>
       <c r="K7" t="n">
-        <v>362.3150549679223</v>
+        <v>362.3150549679222</v>
       </c>
       <c r="L7" t="n">
-        <v>717.004376262343</v>
+        <v>717.0043762623429</v>
       </c>
       <c r="M7" t="n">
         <v>1108.190171232594</v>
@@ -4755,22 +4755,22 @@
         <v>2258.709152951055</v>
       </c>
       <c r="T7" t="n">
-        <v>2258.709152951055</v>
+        <v>2015.369805176955</v>
       </c>
       <c r="U7" t="n">
-        <v>2258.709152951055</v>
+        <v>1735.18535667726</v>
       </c>
       <c r="V7" t="n">
-        <v>2095.402285466169</v>
+        <v>1453.473889285288</v>
       </c>
       <c r="W7" t="n">
-        <v>1820.549881638682</v>
+        <v>1178.621485457801</v>
       </c>
       <c r="X7" t="n">
-        <v>1577.985985084488</v>
+        <v>936.0575889036064</v>
       </c>
       <c r="Y7" t="n">
-        <v>1351.64321677423</v>
+        <v>709.7148205933485</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1444.739398795101</v>
+        <v>1760.22046895977</v>
       </c>
       <c r="C8" t="n">
-        <v>1017.838668808401</v>
+        <v>1760.22046895977</v>
       </c>
       <c r="D8" t="n">
-        <v>594.5460479934015</v>
+        <v>1336.92784814477</v>
       </c>
       <c r="E8" t="n">
-        <v>168.5691081412591</v>
+        <v>910.9509082926276</v>
       </c>
       <c r="F8" t="n">
-        <v>78.29612553792703</v>
+        <v>815.4004377309723</v>
       </c>
       <c r="G8" t="n">
-        <v>78.29612553792703</v>
+        <v>411.061375320421</v>
       </c>
       <c r="H8" t="n">
-        <v>78.29612553792703</v>
+        <v>113.1929967944558</v>
       </c>
       <c r="I8" t="n">
-        <v>78.29612553792703</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J8" t="n">
-        <v>440.8995843548225</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="K8" t="n">
-        <v>440.8995843548225</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="L8" t="n">
-        <v>440.8995843548225</v>
+        <v>1007.921173157204</v>
       </c>
       <c r="M8" t="n">
-        <v>1409.814137886669</v>
+        <v>1976.83572668905</v>
       </c>
       <c r="N8" t="n">
-        <v>2378.728691418516</v>
+        <v>2945.750280220896</v>
       </c>
       <c r="O8" t="n">
-        <v>3223.873341569328</v>
+        <v>3790.894930371709</v>
       </c>
       <c r="P8" t="n">
-        <v>3797.249942014448</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="Q8" t="n">
-        <v>3797.249942014448</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="R8" t="n">
-        <v>3914.806276896351</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="S8" t="n">
-        <v>3914.806276896351</v>
+        <v>3810.438982769489</v>
       </c>
       <c r="T8" t="n">
-        <v>3693.880705940984</v>
+        <v>3589.513411814123</v>
       </c>
       <c r="U8" t="n">
-        <v>3435.525796537397</v>
+        <v>3331.158502410535</v>
       </c>
       <c r="V8" t="n">
-        <v>3078.036381663646</v>
+        <v>2973.669087536785</v>
       </c>
       <c r="W8" t="n">
-        <v>2681.645031963993</v>
+        <v>2577.277737837132</v>
       </c>
       <c r="X8" t="n">
-        <v>2269.925033131741</v>
+        <v>2165.557739004879</v>
       </c>
       <c r="Y8" t="n">
-        <v>1864.587763086631</v>
+        <v>1760.22046895977</v>
       </c>
     </row>
     <row r="9">
@@ -4865,46 +4865,46 @@
         <v>527.913713086887</v>
       </c>
       <c r="D9" t="n">
-        <v>424.0737546021721</v>
+        <v>424.073754602172</v>
       </c>
       <c r="E9" t="n">
-        <v>319.3718208751093</v>
+        <v>319.3718208751092</v>
       </c>
       <c r="F9" t="n">
-        <v>225.7259905580135</v>
+        <v>225.7259905580134</v>
       </c>
       <c r="G9" t="n">
         <v>131.6722187756174</v>
       </c>
       <c r="H9" t="n">
-        <v>78.29612553792703</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I9" t="n">
-        <v>78.29612553792703</v>
+        <v>85.74276849983882</v>
       </c>
       <c r="J9" t="n">
-        <v>78.29612553792703</v>
+        <v>85.74276849983882</v>
       </c>
       <c r="K9" t="n">
-        <v>668.7810521062665</v>
+        <v>676.2276950681784</v>
       </c>
       <c r="L9" t="n">
-        <v>668.7810521062665</v>
+        <v>1170.786039079939</v>
       </c>
       <c r="M9" t="n">
-        <v>836.0498925018867</v>
+        <v>1170.786039079939</v>
       </c>
       <c r="N9" t="n">
-        <v>1804.964446033734</v>
+        <v>1170.786039079939</v>
       </c>
       <c r="O9" t="n">
-        <v>1804.964446033734</v>
+        <v>1170.786039079939</v>
       </c>
       <c r="P9" t="n">
-        <v>1804.964446033734</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="Q9" t="n">
-        <v>1804.964446033734</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="R9" t="n">
         <v>1886.983756118437</v>
@@ -4938,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>659.9797062207041</v>
+        <v>422.1304628844506</v>
       </c>
       <c r="C10" t="n">
-        <v>659.9797062207041</v>
+        <v>250.1578997633666</v>
       </c>
       <c r="D10" t="n">
-        <v>659.9797062207041</v>
+        <v>250.1578997633666</v>
       </c>
       <c r="E10" t="n">
-        <v>659.9797062207041</v>
+        <v>250.1578997633666</v>
       </c>
       <c r="F10" t="n">
-        <v>488.1179319952645</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="G10" t="n">
-        <v>321.8609622894967</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="H10" t="n">
-        <v>178.064693797651</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I10" t="n">
-        <v>78.29612553792703</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J10" t="n">
-        <v>135.7874537620851</v>
+        <v>135.787453762085</v>
       </c>
       <c r="K10" t="n">
-        <v>362.3150549679223</v>
+        <v>362.3150549679222</v>
       </c>
       <c r="L10" t="n">
-        <v>717.004376262343</v>
+        <v>717.0043762623429</v>
       </c>
       <c r="M10" t="n">
         <v>1108.190171232594</v>
@@ -4986,28 +4986,28 @@
         <v>2258.709152951055</v>
       </c>
       <c r="R10" t="n">
-        <v>2211.670539638229</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="S10" t="n">
-        <v>2041.535492157363</v>
+        <v>2088.57410547019</v>
       </c>
       <c r="T10" t="n">
-        <v>1798.196144383263</v>
+        <v>1845.23475769609</v>
       </c>
       <c r="U10" t="n">
-        <v>1518.011695883568</v>
+        <v>1565.050309196394</v>
       </c>
       <c r="V10" t="n">
-        <v>1236.300228491596</v>
+        <v>1283.338841804423</v>
       </c>
       <c r="W10" t="n">
-        <v>961.4478246641095</v>
+        <v>1081.203096460969</v>
       </c>
       <c r="X10" t="n">
-        <v>886.322474530962</v>
+        <v>838.6391999067741</v>
       </c>
       <c r="Y10" t="n">
-        <v>659.9797062207041</v>
+        <v>612.2964315965162</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1814.487469258898</v>
+        <v>1760.22046895977</v>
       </c>
       <c r="C11" t="n">
-        <v>1387.586739272198</v>
+        <v>1333.31973897307</v>
       </c>
       <c r="D11" t="n">
-        <v>964.294118457198</v>
+        <v>910.0271181580702</v>
       </c>
       <c r="E11" t="n">
-        <v>538.3171786050556</v>
+        <v>815.4004377309723</v>
       </c>
       <c r="F11" t="n">
-        <v>113.1929967944558</v>
+        <v>815.4004377309723</v>
       </c>
       <c r="G11" t="n">
-        <v>113.1929967944558</v>
+        <v>411.061375320421</v>
       </c>
       <c r="H11" t="n">
         <v>113.1929967944558</v>
       </c>
       <c r="I11" t="n">
-        <v>78.29612553792703</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J11" t="n">
-        <v>440.8995843548225</v>
+        <v>142.6071776067475</v>
       </c>
       <c r="K11" t="n">
-        <v>1156.407892330322</v>
+        <v>858.1154855822466</v>
       </c>
       <c r="L11" t="n">
-        <v>2086.032939949598</v>
+        <v>1787.740533201523</v>
       </c>
       <c r="M11" t="n">
-        <v>3054.947493481445</v>
+        <v>1787.740533201523</v>
       </c>
       <c r="N11" t="n">
-        <v>3797.249942014448</v>
+        <v>1787.740533201523</v>
       </c>
       <c r="O11" t="n">
-        <v>3797.249942014448</v>
+        <v>2632.885183352335</v>
       </c>
       <c r="P11" t="n">
-        <v>3797.249942014448</v>
+        <v>3341.164462510263</v>
       </c>
       <c r="Q11" t="n">
-        <v>3797.249942014448</v>
+        <v>3797.249942014446</v>
       </c>
       <c r="R11" t="n">
-        <v>3914.806276896351</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="S11" t="n">
-        <v>3810.438982769491</v>
+        <v>3810.438982769489</v>
       </c>
       <c r="T11" t="n">
-        <v>3589.513411814125</v>
+        <v>3589.513411814123</v>
       </c>
       <c r="U11" t="n">
-        <v>3331.158502410537</v>
+        <v>3331.158502410535</v>
       </c>
       <c r="V11" t="n">
-        <v>2973.669087536787</v>
+        <v>2973.669087536785</v>
       </c>
       <c r="W11" t="n">
-        <v>2577.277737837134</v>
+        <v>2577.277737837132</v>
       </c>
       <c r="X11" t="n">
-        <v>2234.335833550428</v>
+        <v>2165.557739004879</v>
       </c>
       <c r="Y11" t="n">
-        <v>2234.335833550428</v>
+        <v>1760.22046895977</v>
       </c>
     </row>
     <row r="12">
@@ -5102,43 +5102,43 @@
         <v>527.913713086887</v>
       </c>
       <c r="D12" t="n">
-        <v>424.0737546021721</v>
+        <v>424.073754602172</v>
       </c>
       <c r="E12" t="n">
-        <v>319.3718208751093</v>
+        <v>319.3718208751092</v>
       </c>
       <c r="F12" t="n">
-        <v>225.7259905580135</v>
+        <v>225.7259905580134</v>
       </c>
       <c r="G12" t="n">
         <v>131.6722187756174</v>
       </c>
       <c r="H12" t="n">
-        <v>78.29612553792703</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I12" t="n">
-        <v>78.29612553792703</v>
+        <v>85.74276849983882</v>
       </c>
       <c r="J12" t="n">
-        <v>349.9936148175181</v>
+        <v>357.4402577794299</v>
       </c>
       <c r="K12" t="n">
-        <v>349.9936148175181</v>
+        <v>947.9251843477695</v>
       </c>
       <c r="L12" t="n">
-        <v>349.9936148175181</v>
+        <v>1784.723992430675</v>
       </c>
       <c r="M12" t="n">
-        <v>918.0692025865899</v>
+        <v>1784.723992430675</v>
       </c>
       <c r="N12" t="n">
-        <v>1886.983756118437</v>
+        <v>1784.723992430675</v>
       </c>
       <c r="O12" t="n">
-        <v>1886.983756118437</v>
+        <v>1784.723992430675</v>
       </c>
       <c r="P12" t="n">
-        <v>1886.983756118437</v>
+        <v>1784.723992430675</v>
       </c>
       <c r="Q12" t="n">
         <v>1886.983756118437</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1161.477248062164</v>
+        <v>349.4138044004177</v>
       </c>
       <c r="C13" t="n">
-        <v>989.5046849410799</v>
+        <v>177.4412412793338</v>
       </c>
       <c r="D13" t="n">
-        <v>826.1879120678506</v>
+        <v>177.4412412793338</v>
       </c>
       <c r="E13" t="n">
-        <v>659.9797062207041</v>
+        <v>177.4412412793338</v>
       </c>
       <c r="F13" t="n">
-        <v>488.1179319952645</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="G13" t="n">
-        <v>321.8609622894967</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="H13" t="n">
-        <v>178.064693797651</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I13" t="n">
-        <v>78.29612553792703</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J13" t="n">
-        <v>135.7874537620851</v>
+        <v>135.787453762085</v>
       </c>
       <c r="K13" t="n">
-        <v>362.3150549679223</v>
+        <v>362.3150549679222</v>
       </c>
       <c r="L13" t="n">
-        <v>717.004376262343</v>
+        <v>717.0043762623429</v>
       </c>
       <c r="M13" t="n">
         <v>1108.190171232594</v>
@@ -5223,28 +5223,28 @@
         <v>2258.709152951055</v>
       </c>
       <c r="R13" t="n">
-        <v>2211.670539638229</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="S13" t="n">
-        <v>2211.670539638229</v>
+        <v>2088.57410547019</v>
       </c>
       <c r="T13" t="n">
-        <v>2211.670539638229</v>
+        <v>1845.23475769609</v>
       </c>
       <c r="U13" t="n">
-        <v>2211.670539638229</v>
+        <v>1565.050309196394</v>
       </c>
       <c r="V13" t="n">
-        <v>2095.402285466169</v>
+        <v>1283.338841804423</v>
       </c>
       <c r="W13" t="n">
-        <v>1820.549881638682</v>
+        <v>1008.486437976936</v>
       </c>
       <c r="X13" t="n">
-        <v>1577.985985084488</v>
+        <v>765.9225414227413</v>
       </c>
       <c r="Y13" t="n">
-        <v>1351.64321677423</v>
+        <v>539.5797731124834</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2516.694910195414</v>
+        <v>2058.505418123886</v>
       </c>
       <c r="C14" t="n">
-        <v>2089.794180208714</v>
+        <v>1631.604688137186</v>
       </c>
       <c r="D14" t="n">
-        <v>1666.501559393715</v>
+        <v>1631.604688137186</v>
       </c>
       <c r="E14" t="n">
-        <v>1240.524619541572</v>
+        <v>1205.627748285043</v>
       </c>
       <c r="F14" t="n">
-        <v>815.4004377309724</v>
+        <v>780.5035664744435</v>
       </c>
       <c r="G14" t="n">
-        <v>411.061375320421</v>
+        <v>376.1645040638921</v>
       </c>
       <c r="H14" t="n">
-        <v>113.1929967944558</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I14" t="n">
-        <v>78.29612553792703</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J14" t="n">
-        <v>78.29612553792703</v>
+        <v>440.8995843548225</v>
       </c>
       <c r="K14" t="n">
-        <v>78.29612553792703</v>
+        <v>1156.407892330322</v>
       </c>
       <c r="L14" t="n">
-        <v>818.8259796696782</v>
+        <v>1156.407892330322</v>
       </c>
       <c r="M14" t="n">
-        <v>818.8259796696782</v>
+        <v>1156.407892330322</v>
       </c>
       <c r="N14" t="n">
-        <v>1787.740533201525</v>
+        <v>1905.296868083426</v>
       </c>
       <c r="O14" t="n">
-        <v>2632.885183352337</v>
+        <v>2750.441518234238</v>
       </c>
       <c r="P14" t="n">
-        <v>3341.164462510265</v>
+        <v>3458.720797392166</v>
       </c>
       <c r="Q14" t="n">
-        <v>3797.249942014448</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="R14" t="n">
-        <v>3914.806276896351</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="S14" t="n">
-        <v>3810.438982769491</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="T14" t="n">
-        <v>3589.513411814125</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="U14" t="n">
-        <v>3331.158502410537</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="V14" t="n">
-        <v>2973.669087536787</v>
+        <v>3557.316862022599</v>
       </c>
       <c r="W14" t="n">
-        <v>2577.277737837134</v>
+        <v>3160.925512322946</v>
       </c>
       <c r="X14" t="n">
-        <v>2516.694910195414</v>
+        <v>2883.691052460525</v>
       </c>
       <c r="Y14" t="n">
-        <v>2516.694910195414</v>
+        <v>2478.353782415415</v>
       </c>
     </row>
     <row r="15">
@@ -5339,46 +5339,46 @@
         <v>527.913713086887</v>
       </c>
       <c r="D15" t="n">
-        <v>424.0737546021721</v>
+        <v>424.073754602172</v>
       </c>
       <c r="E15" t="n">
-        <v>319.3718208751093</v>
+        <v>319.3718208751092</v>
       </c>
       <c r="F15" t="n">
-        <v>225.7259905580135</v>
+        <v>225.7259905580134</v>
       </c>
       <c r="G15" t="n">
         <v>131.6722187756174</v>
       </c>
       <c r="H15" t="n">
-        <v>78.29612553792703</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I15" t="n">
-        <v>78.29612553792703</v>
+        <v>85.74276849983882</v>
       </c>
       <c r="J15" t="n">
-        <v>349.9936148175181</v>
+        <v>357.4402577794299</v>
       </c>
       <c r="K15" t="n">
-        <v>349.9936148175181</v>
+        <v>947.9251843477695</v>
       </c>
       <c r="L15" t="n">
-        <v>349.9936148175181</v>
+        <v>947.9251843477695</v>
       </c>
       <c r="M15" t="n">
-        <v>1318.908168349365</v>
+        <v>947.9251843477695</v>
       </c>
       <c r="N15" t="n">
-        <v>1804.964446033734</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="O15" t="n">
-        <v>1804.964446033734</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="P15" t="n">
-        <v>1804.964446033734</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="Q15" t="n">
-        <v>1804.964446033734</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="R15" t="n">
         <v>1886.983756118437</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1161.477248062164</v>
+        <v>422.1304628844506</v>
       </c>
       <c r="C16" t="n">
-        <v>989.5046849410799</v>
+        <v>250.1578997633666</v>
       </c>
       <c r="D16" t="n">
-        <v>826.1879120678506</v>
+        <v>250.1578997633666</v>
       </c>
       <c r="E16" t="n">
-        <v>659.9797062207041</v>
+        <v>250.1578997633666</v>
       </c>
       <c r="F16" t="n">
-        <v>488.1179319952645</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="G16" t="n">
-        <v>321.8609622894967</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="H16" t="n">
-        <v>178.064693797651</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I16" t="n">
-        <v>78.29612553792703</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J16" t="n">
-        <v>135.7874537620851</v>
+        <v>135.787453762085</v>
       </c>
       <c r="K16" t="n">
-        <v>362.3150549679223</v>
+        <v>362.3150549679222</v>
       </c>
       <c r="L16" t="n">
-        <v>717.004376262343</v>
+        <v>717.0043762623429</v>
       </c>
       <c r="M16" t="n">
         <v>1108.190171232594</v>
@@ -5463,25 +5463,25 @@
         <v>2258.709152951055</v>
       </c>
       <c r="S16" t="n">
-        <v>2258.709152951055</v>
+        <v>2088.57410547019</v>
       </c>
       <c r="T16" t="n">
-        <v>2258.709152951055</v>
+        <v>1845.23475769609</v>
       </c>
       <c r="U16" t="n">
-        <v>2258.709152951055</v>
+        <v>1565.050309196394</v>
       </c>
       <c r="V16" t="n">
-        <v>2095.402285466169</v>
+        <v>1283.338841804423</v>
       </c>
       <c r="W16" t="n">
-        <v>1820.549881638682</v>
+        <v>1081.203096460969</v>
       </c>
       <c r="X16" t="n">
-        <v>1577.985985084488</v>
+        <v>838.6391999067741</v>
       </c>
       <c r="Y16" t="n">
-        <v>1351.64321677423</v>
+        <v>612.2964315965162</v>
       </c>
     </row>
     <row r="17">
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
         <v>1180.414480198223</v>
@@ -5524,43 +5524,43 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>4997.579335409524</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.289251381874</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="N18" t="n">
-        <v>1364.825557038856</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="O18" t="n">
-        <v>1364.825557038856</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="P18" t="n">
-        <v>1364.825557038856</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="Q18" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>437.5920494001418</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C19" t="n">
-        <v>265.6194862790578</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D19" t="n">
-        <v>102.3027134058285</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E19" t="n">
-        <v>102.3027134058285</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F19" t="n">
         <v>102.3027134058285</v>
@@ -5673,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5700,25 +5700,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2176.752350469914</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>1933.413002695814</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>1653.228554196118</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>1371.517086804147</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W19" t="n">
-        <v>1096.66468297666</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X19" t="n">
-        <v>854.1007864224655</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y19" t="n">
-        <v>627.7580181122075</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5740,49 +5740,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="L20" t="n">
-        <v>1007.532766690842</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.8188681099</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596601</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C21" t="n">
-        <v>3756.065627259877</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D21" t="n">
-        <v>3652.225668775162</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E21" t="n">
-        <v>3547.5237350481</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F21" t="n">
-        <v>3453.877904731004</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>3359.824132948608</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H21" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>3896.932966279257</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>3896.932966279257</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M21" t="n">
-        <v>3896.932966279257</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N21" t="n">
-        <v>3896.932966279257</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="O21" t="n">
-        <v>4786.414244290729</v>
+        <v>1828.582799500206</v>
       </c>
       <c r="P21" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S21" t="n">
-        <v>5033.811422852681</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T21" t="n">
-        <v>4891.931487150359</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U21" t="n">
-        <v>4707.163291069996</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V21" t="n">
-        <v>4502.190152209263</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W21" t="n">
-        <v>4305.66877504248</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X21" t="n">
-        <v>4142.191428809143</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y21" t="n">
-        <v>4002.498540162435</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3350.260042750951</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C22" t="n">
-        <v>3178.287479629867</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D22" t="n">
-        <v>3178.287479629867</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E22" t="n">
-        <v>3178.287479629867</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F22" t="n">
-        <v>3178.287479629867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>3178.287479629867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>3034.491211138022</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>4897.962009497734</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>4654.622661723634</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>4374.438213223939</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>4092.726745831968</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>3817.874342004481</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>3575.310445450286</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y22" t="n">
-        <v>3350.260042750951</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5977,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6074,19 +6074,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>730.647150085061</v>
       </c>
       <c r="M24" t="n">
-        <v>1021.509065974867</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N24" t="n">
-        <v>1021.509065974867</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q24" t="n">
         <v>1910.990343986338</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6174,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>2119.408873334071</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6214,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>4006.096290254794</v>
       </c>
       <c r="P26" t="n">
-        <v>4997.579335409524</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6305,19 +6305,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L27" t="n">
-        <v>821.6753975134684</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O27" t="n">
         <v>1910.990343986338</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6411,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>2001.004273426986</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6451,49 +6451,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291426</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6551,16 +6551,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>991.7839914173002</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
         <v>1910.990343986338</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>941.9189991784957</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>769.9464360574117</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>606.6296631841824</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>440.4214573370359</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
         <v>102.3027134058285</v>
@@ -6621,10 +6621,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6648,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>2039.376393044857</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1759.191944545161</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1759.191944545161</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1600.991632755014</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>1358.427736200819</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>1132.084967890561</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6688,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409524</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6779,22 +6779,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N33" t="n">
-        <v>1158.289251381874</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P33" t="n">
         <v>1910.990343986338</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3158.801708427963</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>2986.829145306879</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>2934.722642878298</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>2934.722642878298</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>4897.962009497734</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>4654.622661723634</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>4374.438213223939</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>4092.726745831968</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>3817.874342004481</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>3575.310445450286</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>3348.967677140028</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,13 +6925,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
@@ -6955,19 +6955,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7019,22 +7019,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N36" t="n">
-        <v>692.7876399741681</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O36" t="n">
-        <v>1582.26891798564</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1085.715267670341</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>913.7427045492574</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>750.4259316760281</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
         <v>102.3027134058285</v>
@@ -7095,10 +7095,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7122,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>2002.531292319261</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>2002.531292319261</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>1727.678888491774</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>1485.114991937579</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>1275.881236382407</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,49 +7162,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291426</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7259,10 +7259,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N39" t="n">
         <v>1910.990343986338</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7359,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>2119.408873334071</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1745.709374713351</v>
+        <v>2218.826531669449</v>
       </c>
       <c r="C41" t="n">
-        <v>1745.709374713351</v>
+        <v>1791.925801682749</v>
       </c>
       <c r="D41" t="n">
-        <v>1666.501559393715</v>
+        <v>1368.633180867749</v>
       </c>
       <c r="E41" t="n">
-        <v>1240.524619541572</v>
+        <v>942.656241015607</v>
       </c>
       <c r="F41" t="n">
-        <v>815.4004377309724</v>
+        <v>517.5320592050072</v>
       </c>
       <c r="G41" t="n">
-        <v>411.061375320421</v>
+        <v>113.1929967944558</v>
       </c>
       <c r="H41" t="n">
         <v>113.1929967944558</v>
       </c>
       <c r="I41" t="n">
-        <v>78.29612553792703</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J41" t="n">
-        <v>78.29612553792703</v>
+        <v>440.8995843548225</v>
       </c>
       <c r="K41" t="n">
-        <v>793.8044335134261</v>
+        <v>1156.407892330322</v>
       </c>
       <c r="L41" t="n">
-        <v>1723.429481132703</v>
+        <v>2086.032939949598</v>
       </c>
       <c r="M41" t="n">
-        <v>2692.344034664549</v>
+        <v>3054.947493481444</v>
       </c>
       <c r="N41" t="n">
-        <v>2750.44151823424</v>
+        <v>3054.947493481444</v>
       </c>
       <c r="O41" t="n">
-        <v>2750.44151823424</v>
+        <v>3054.947493481444</v>
       </c>
       <c r="P41" t="n">
-        <v>3458.720797392168</v>
+        <v>3458.720797392166</v>
       </c>
       <c r="Q41" t="n">
-        <v>3914.806276896351</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="R41" t="n">
-        <v>3914.806276896351</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="S41" t="n">
-        <v>3810.438982769491</v>
+        <v>3852.123514537995</v>
       </c>
       <c r="T41" t="n">
-        <v>3589.513411814125</v>
+        <v>3852.123514537995</v>
       </c>
       <c r="U41" t="n">
-        <v>3331.158502410537</v>
+        <v>3852.123514537995</v>
       </c>
       <c r="V41" t="n">
-        <v>2973.669087536787</v>
+        <v>3852.123514537995</v>
       </c>
       <c r="W41" t="n">
-        <v>2577.277737837134</v>
+        <v>3455.732164838342</v>
       </c>
       <c r="X41" t="n">
-        <v>2165.557739004881</v>
+        <v>3044.012166006089</v>
       </c>
       <c r="Y41" t="n">
-        <v>2165.557739004881</v>
+        <v>2638.674895960979</v>
       </c>
     </row>
     <row r="42">
@@ -7472,46 +7472,46 @@
         <v>527.913713086887</v>
       </c>
       <c r="D42" t="n">
-        <v>424.0737546021721</v>
+        <v>424.073754602172</v>
       </c>
       <c r="E42" t="n">
-        <v>319.3718208751093</v>
+        <v>319.3718208751092</v>
       </c>
       <c r="F42" t="n">
-        <v>225.7259905580135</v>
+        <v>225.7259905580134</v>
       </c>
       <c r="G42" t="n">
         <v>131.6722187756174</v>
       </c>
       <c r="H42" t="n">
-        <v>78.29612553792703</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I42" t="n">
-        <v>78.29612553792703</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J42" t="n">
-        <v>78.29612553792703</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="K42" t="n">
-        <v>78.29612553792703</v>
+        <v>668.7810521062665</v>
       </c>
       <c r="L42" t="n">
-        <v>78.29612553792703</v>
+        <v>1088.766728995236</v>
       </c>
       <c r="M42" t="n">
-        <v>997.5024781069651</v>
+        <v>1088.766728995236</v>
       </c>
       <c r="N42" t="n">
-        <v>997.5024781069651</v>
+        <v>1088.766728995236</v>
       </c>
       <c r="O42" t="n">
-        <v>1886.983756118437</v>
+        <v>1088.766728995236</v>
       </c>
       <c r="P42" t="n">
-        <v>1886.983756118437</v>
+        <v>1804.964446033734</v>
       </c>
       <c r="Q42" t="n">
-        <v>1886.983756118437</v>
+        <v>1804.964446033734</v>
       </c>
       <c r="R42" t="n">
         <v>1886.983756118437</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>917.9124113105943</v>
+        <v>422.1304628844506</v>
       </c>
       <c r="C43" t="n">
-        <v>745.9398481895103</v>
+        <v>250.1578997633666</v>
       </c>
       <c r="D43" t="n">
-        <v>582.623075316281</v>
+        <v>250.1578997633666</v>
       </c>
       <c r="E43" t="n">
-        <v>416.4148694691345</v>
+        <v>250.1578997633666</v>
       </c>
       <c r="F43" t="n">
-        <v>244.5530952436949</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="G43" t="n">
-        <v>78.29612553792703</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="H43" t="n">
-        <v>78.29612553792703</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I43" t="n">
-        <v>78.29612553792703</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J43" t="n">
-        <v>135.7874537620851</v>
+        <v>135.787453762085</v>
       </c>
       <c r="K43" t="n">
-        <v>362.3150549679223</v>
+        <v>362.3150549679222</v>
       </c>
       <c r="L43" t="n">
-        <v>717.004376262343</v>
+        <v>717.0043762623429</v>
       </c>
       <c r="M43" t="n">
         <v>1108.190171232594</v>
@@ -7593,28 +7593,28 @@
         <v>2258.709152951055</v>
       </c>
       <c r="R43" t="n">
-        <v>2211.670539638229</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="S43" t="n">
-        <v>2211.670539638229</v>
+        <v>2161.290763954223</v>
       </c>
       <c r="T43" t="n">
-        <v>1968.331191864128</v>
+        <v>1917.951416180123</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.146743364433</v>
+        <v>1637.766967680427</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.146743364433</v>
+        <v>1356.055500288456</v>
       </c>
       <c r="W43" t="n">
-        <v>1576.985044887113</v>
+        <v>1081.203096460969</v>
       </c>
       <c r="X43" t="n">
-        <v>1334.421148332918</v>
+        <v>838.6391999067741</v>
       </c>
       <c r="Y43" t="n">
-        <v>1108.07838002266</v>
+        <v>612.2964315965162</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1850.076668840211</v>
+        <v>1444.739398795099</v>
       </c>
       <c r="C44" t="n">
-        <v>1850.076668840211</v>
+        <v>1017.838668808399</v>
       </c>
       <c r="D44" t="n">
-        <v>1426.784048025211</v>
+        <v>1017.838668808399</v>
       </c>
       <c r="E44" t="n">
-        <v>1240.524619541572</v>
+        <v>591.861728956257</v>
       </c>
       <c r="F44" t="n">
-        <v>815.4004377309724</v>
+        <v>482.6351879484783</v>
       </c>
       <c r="G44" t="n">
-        <v>411.061375320421</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="H44" t="n">
-        <v>113.1929967944558</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I44" t="n">
-        <v>78.29612553792703</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J44" t="n">
-        <v>78.29612553792703</v>
+        <v>440.8995843548225</v>
       </c>
       <c r="K44" t="n">
-        <v>78.29612553792703</v>
+        <v>1156.407892330322</v>
       </c>
       <c r="L44" t="n">
-        <v>78.29612553792703</v>
+        <v>1156.407892330322</v>
       </c>
       <c r="M44" t="n">
-        <v>936.382314551581</v>
+        <v>2125.322445862168</v>
       </c>
       <c r="N44" t="n">
-        <v>1905.296868083428</v>
+        <v>2125.322445862168</v>
       </c>
       <c r="O44" t="n">
-        <v>2750.44151823424</v>
+        <v>2750.441518234238</v>
       </c>
       <c r="P44" t="n">
-        <v>3458.720797392168</v>
+        <v>3458.720797392166</v>
       </c>
       <c r="Q44" t="n">
-        <v>3914.806276896351</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="R44" t="n">
-        <v>3914.806276896351</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="S44" t="n">
-        <v>3914.806276896351</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="T44" t="n">
-        <v>3693.880705940984</v>
+        <v>3693.880705940982</v>
       </c>
       <c r="U44" t="n">
-        <v>3435.525796537397</v>
+        <v>3435.525796537395</v>
       </c>
       <c r="V44" t="n">
-        <v>3078.036381663646</v>
+        <v>3078.036381663645</v>
       </c>
       <c r="W44" t="n">
-        <v>2681.645031963993</v>
+        <v>2681.645031963992</v>
       </c>
       <c r="X44" t="n">
-        <v>2269.925033131741</v>
+        <v>2269.925033131739</v>
       </c>
       <c r="Y44" t="n">
-        <v>2269.925033131741</v>
+        <v>1864.587763086629</v>
       </c>
     </row>
     <row r="45">
@@ -7709,43 +7709,43 @@
         <v>527.913713086887</v>
       </c>
       <c r="D45" t="n">
-        <v>424.0737546021721</v>
+        <v>424.073754602172</v>
       </c>
       <c r="E45" t="n">
-        <v>319.3718208751093</v>
+        <v>319.3718208751092</v>
       </c>
       <c r="F45" t="n">
-        <v>225.7259905580135</v>
+        <v>225.7259905580134</v>
       </c>
       <c r="G45" t="n">
         <v>131.6722187756174</v>
       </c>
       <c r="H45" t="n">
-        <v>78.29612553792703</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I45" t="n">
-        <v>78.29612553792703</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J45" t="n">
-        <v>349.9936148175181</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="K45" t="n">
-        <v>940.4785413858576</v>
+        <v>668.7810521062665</v>
       </c>
       <c r="L45" t="n">
-        <v>1422.838279255657</v>
+        <v>918.0692025865903</v>
       </c>
       <c r="M45" t="n">
-        <v>1422.838279255657</v>
+        <v>918.0692025865903</v>
       </c>
       <c r="N45" t="n">
-        <v>1422.838279255657</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="O45" t="n">
-        <v>1422.838279255657</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="P45" t="n">
-        <v>1422.838279255657</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="Q45" t="n">
         <v>1886.983756118437</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>519.5488518812829</v>
+        <v>422.1304628844506</v>
       </c>
       <c r="C46" t="n">
-        <v>347.5762887601988</v>
+        <v>250.1578997633666</v>
       </c>
       <c r="D46" t="n">
-        <v>347.5762887601988</v>
+        <v>250.1578997633666</v>
       </c>
       <c r="E46" t="n">
-        <v>347.5762887601988</v>
+        <v>250.1578997633666</v>
       </c>
       <c r="F46" t="n">
-        <v>175.7145145347593</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="G46" t="n">
-        <v>78.29612553792703</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="H46" t="n">
-        <v>78.29612553792703</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I46" t="n">
-        <v>78.29612553792703</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J46" t="n">
-        <v>135.7874537620851</v>
+        <v>135.787453762085</v>
       </c>
       <c r="K46" t="n">
-        <v>362.3150549679223</v>
+        <v>362.3150549679222</v>
       </c>
       <c r="L46" t="n">
-        <v>717.004376262343</v>
+        <v>717.0043762623429</v>
       </c>
       <c r="M46" t="n">
         <v>1108.190171232594</v>
@@ -7833,25 +7833,25 @@
         <v>2258.709152951055</v>
       </c>
       <c r="S46" t="n">
-        <v>2258.709152951055</v>
+        <v>2161.290763954223</v>
       </c>
       <c r="T46" t="n">
-        <v>2015.369805176955</v>
+        <v>1917.951416180123</v>
       </c>
       <c r="U46" t="n">
-        <v>1735.18535667726</v>
+        <v>1637.766967680427</v>
       </c>
       <c r="V46" t="n">
-        <v>1453.473889285288</v>
+        <v>1356.055500288456</v>
       </c>
       <c r="W46" t="n">
-        <v>1178.621485457801</v>
+        <v>1081.203096460969</v>
       </c>
       <c r="X46" t="n">
-        <v>936.0575889036064</v>
+        <v>838.6391999067741</v>
       </c>
       <c r="Y46" t="n">
-        <v>709.7148205933485</v>
+        <v>612.2964315965162</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>594.5398555482169</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
-        <v>86.17533235500345</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500401</v>
+        <v>571.0335849150667</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716181</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>467.0051119838363</v>
+        <v>177.6973456537768</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
@@ -8069,13 +8069,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204227</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
@@ -8218,16 +8218,16 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L5" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M5" t="n">
-        <v>1016.13283212352</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>425.7105530350123</v>
+        <v>102.2402814898203</v>
       </c>
       <c r="O5" t="n">
         <v>891.0724241548241</v>
@@ -8236,10 +8236,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L6" t="n">
-        <v>867.7664080100944</v>
+        <v>502.225283590884</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
@@ -8309,13 +8309,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>105.0107851302144</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M8" t="n">
-        <v>1016.13283212352</v>
+        <v>1016.132832123519</v>
       </c>
       <c r="N8" t="n">
-        <v>1015.981192058534</v>
+        <v>1015.981192058533</v>
       </c>
       <c r="O8" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P8" t="n">
-        <v>616.7436450881303</v>
+        <v>162.738338097747</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>20.61111433333334</v>
@@ -8537,25 +8537,25 @@
         <v>618.848654609434</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>522.0689695543915</v>
       </c>
       <c r="M9" t="n">
-        <v>192.0552051543685</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>1000.044597437629</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>94.38061814096082</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
@@ -8698,19 +8698,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1016.13283212352</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>787.0800758980854</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8765,22 +8765,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
-        <v>596.9105055315923</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>1000.044597437629</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
@@ -8789,7 +8789,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>126.0397288826768</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8926,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>786.3219961010584</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>1015.981192058534</v>
+        <v>793.7331336961677</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
@@ -8950,7 +8950,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,22 +9002,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>1001.798349736416</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>512.3089652684594</v>
+        <v>969.8870401031046</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
@@ -9029,7 +9029,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9172,19 +9172,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>100.0581876036184</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9239,22 +9239,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>229.9655591801901</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9263,10 +9263,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>126.0397288826768</v>
       </c>
       <c r="R18" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>758.5002654165255</v>
+        <v>583.8722719747271</v>
       </c>
       <c r="L20" t="n">
-        <v>229.9501690078898</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
@@ -9482,10 +9482,10 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
         <v>23.09678051232798</v>
@@ -9497,7 +9497,7 @@
         <v>921.6378271075471</v>
       </c>
       <c r="P21" t="n">
-        <v>353.8126856499778</v>
+        <v>105.0107851302144</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9722,22 +9722,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>657.2064368952725</v>
       </c>
       <c r="M24" t="n">
-        <v>951.5880457335786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9892,10 +9892,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>466.3243076206841</v>
+        <v>578.380983679471</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9953,22 +9953,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>749.1541615704315</v>
+        <v>80.1150227961563</v>
       </c>
       <c r="M27" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
@@ -10126,13 +10126,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>891.0724241548241</v>
+        <v>618.9086683272931</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>35.03264989479647</v>
@@ -10199,19 +10199,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>481.4282914131709</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10357,19 +10357,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>466.3243076206841</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10427,25 +10427,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>783.4760236661258</v>
+        <v>255.8057257768496</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10603,7 +10603,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286663</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
@@ -10667,7 +10667,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
@@ -10676,16 +10676,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O36" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>353.8126856499787</v>
+        <v>279.576101048122</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10840,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286663</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>98.60750039798609</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,13 +10907,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>1004.802661823039</v>
       </c>
       <c r="N39" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11068,16 +11068,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1016.13283212352</v>
+        <v>1016.132832123519</v>
       </c>
       <c r="N41" t="n">
-        <v>95.9639496725174</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>445.4271839422733</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
@@ -11141,28 +11141,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>446.7430431677336</v>
       </c>
       <c r="M42" t="n">
-        <v>951.5880457335785</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M44" t="n">
-        <v>904.1849891758499</v>
+        <v>1016.132832123519</v>
       </c>
       <c r="N44" t="n">
-        <v>1015.981192058534</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>891.0724241548241</v>
+        <v>668.8243657924586</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
@@ -11375,19 +11375,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>509.7471451685728</v>
+        <v>274.3212993206172</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>1000.044597437629</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
@@ -11396,7 +11396,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>105.8126067229585</v>
       </c>
       <c r="C2" t="n">
-        <v>181.7396626967978</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22600,10 +22600,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
@@ -22612,10 +22612,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22710,16 +22710,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>114.7184220815441</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -22752,13 +22752,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>59.64236734312252</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22801,7 +22801,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>249.6696701407263</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>232.8337600059324</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -22947,22 +22947,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2.326677470262823</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22995,13 +22995,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -23032,16 +23032,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>331.502687215195</v>
+        <v>326.277974136455</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -23178,10 +23178,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
@@ -23193,13 +23193,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -23241,10 +23241,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>71.9894918991923</v>
       </c>
       <c r="X10" t="n">
-        <v>165.764160956837</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,16 +23266,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>328.0367568307941</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>68.09031360009112</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>163.7887810877128</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>347.6257994786278</v>
+        <v>133.1406835801336</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,19 +23703,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>71.9894918991923</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
@@ -23940,7 +23940,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>63.52994056050434</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.279441954813848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,16 +24414,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,19 +24651,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
@@ -24888,7 +24888,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>115.4855711169666</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>110.098167740202</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25362,16 +25362,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.93792262753476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,16 +25599,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25630,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>340.6439574404096</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>41.26768645082053</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25791,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>162.0537982966653</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25867,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>237.3203362548185</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>312.7386643947929</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>68.15019490184626</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -26073,7 +26073,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>441079.9125652437</v>
+        <v>441079.9125652438</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>611004.0958783773</v>
+        <v>611004.0958783771</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>611004.0958783773</v>
+        <v>611004.0958783771</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>611004.0958783776</v>
+        <v>611004.0958783772</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>731700.9373568732</v>
+        <v>731700.9373568731</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>731700.9373568732</v>
+        <v>731700.9373568731</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>731700.9373568732</v>
+        <v>731700.9373568731</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>731700.9373568732</v>
+        <v>731700.9373568731</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>611004.0958783776</v>
+        <v>611004.0958783771</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>611004.0958783773</v>
+        <v>611004.0958783771</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>186353.4106584144</v>
+        <v>186353.4106584145</v>
       </c>
       <c r="C2" t="n">
+        <v>258132.303423876</v>
+      </c>
+      <c r="D2" t="n">
         <v>258132.3034238761</v>
-      </c>
-      <c r="D2" t="n">
-        <v>258132.3034238762</v>
       </c>
       <c r="E2" t="n">
         <v>258132.3034238761</v>
@@ -26331,7 +26331,7 @@
         <v>309116.7217255959</v>
       </c>
       <c r="H2" t="n">
-        <v>309116.721725596</v>
+        <v>309116.7217255958</v>
       </c>
       <c r="I2" t="n">
         <v>309116.7217255959</v>
@@ -26340,7 +26340,7 @@
         <v>309116.7217255961</v>
       </c>
       <c r="K2" t="n">
-        <v>309116.7217255958</v>
+        <v>309116.7217255959</v>
       </c>
       <c r="L2" t="n">
         <v>309116.721725596</v>
@@ -26349,13 +26349,13 @@
         <v>309116.7217255959</v>
       </c>
       <c r="N2" t="n">
-        <v>309116.7217255959</v>
+        <v>309116.7217255961</v>
       </c>
       <c r="O2" t="n">
         <v>258132.3034238761</v>
       </c>
       <c r="P2" t="n">
-        <v>258132.3034238762</v>
+        <v>258132.3034238761</v>
       </c>
     </row>
     <row r="3">
@@ -26368,7 +26368,7 @@
         <v>186404.7334147372</v>
       </c>
       <c r="C3" t="n">
-        <v>136488.8862029678</v>
+        <v>136488.8862029676</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>82248.07044717233</v>
+        <v>82248.0704471725</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26392,7 +26392,7 @@
         <v>145533.6699348165</v>
       </c>
       <c r="K3" t="n">
-        <v>108731.2256621308</v>
+        <v>108731.2256621307</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34949.1061971525</v>
+        <v>34949.10619715251</v>
       </c>
       <c r="C4" t="n">
-        <v>48464.53155392383</v>
+        <v>48464.53155392381</v>
       </c>
       <c r="D4" t="n">
-        <v>48464.53155392383</v>
+        <v>48464.53155392381</v>
       </c>
       <c r="E4" t="n">
-        <v>48464.53155392382</v>
+        <v>48464.53155392381</v>
       </c>
       <c r="F4" t="n">
-        <v>48464.53155392383</v>
+        <v>48464.53155392381</v>
       </c>
       <c r="G4" t="n">
         <v>58064.51385187964</v>
       </c>
       <c r="H4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="I4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="J4" t="n">
         <v>58064.51385187964</v>
       </c>
       <c r="K4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="L4" t="n">
         <v>58064.51385187964</v>
       </c>
       <c r="M4" t="n">
-        <v>58064.51385187962</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="N4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="O4" t="n">
-        <v>48464.53155392382</v>
+        <v>48464.53155392381</v>
       </c>
       <c r="P4" t="n">
-        <v>48464.53155392383</v>
+        <v>48464.53155392381</v>
       </c>
     </row>
     <row r="5">
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742811</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="C5" t="n">
-        <v>93132.65540882453</v>
+        <v>93132.6554088245</v>
       </c>
       <c r="D5" t="n">
-        <v>93132.65540882453</v>
+        <v>93132.6554088245</v>
       </c>
       <c r="E5" t="n">
-        <v>59505.05540882453</v>
+        <v>59505.0554088245</v>
       </c>
       <c r="F5" t="n">
-        <v>59505.05540882453</v>
+        <v>59505.0554088245</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>59505.05540882453</v>
+        <v>59505.0554088245</v>
       </c>
       <c r="P5" t="n">
-        <v>59505.05540882453</v>
+        <v>59505.0554088245</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-102446.6799909035</v>
+        <v>-103055.7257033931</v>
       </c>
       <c r="C6" t="n">
-        <v>-19953.76974183996</v>
+        <v>-20236.5477599411</v>
       </c>
       <c r="D6" t="n">
-        <v>116535.1164611278</v>
+        <v>116252.3384430266</v>
       </c>
       <c r="E6" t="n">
-        <v>150162.7164611277</v>
+        <v>149879.9384430266</v>
       </c>
       <c r="F6" t="n">
-        <v>150162.7164611279</v>
+        <v>149879.9384430267</v>
       </c>
       <c r="G6" t="n">
-        <v>91054.07523811425</v>
+        <v>91003.04457592983</v>
       </c>
       <c r="H6" t="n">
-        <v>173302.1456852867</v>
+        <v>173251.1150231022</v>
       </c>
       <c r="I6" t="n">
-        <v>173302.1456852866</v>
+        <v>173251.1150231023</v>
       </c>
       <c r="J6" t="n">
-        <v>27768.47575047027</v>
+        <v>27717.44508828594</v>
       </c>
       <c r="K6" t="n">
-        <v>64570.92002315575</v>
+        <v>64519.88936097159</v>
       </c>
       <c r="L6" t="n">
-        <v>173302.1456852867</v>
+        <v>173251.1150231024</v>
       </c>
       <c r="M6" t="n">
-        <v>173302.1456852866</v>
+        <v>173251.1150231023</v>
       </c>
       <c r="N6" t="n">
-        <v>173302.1456852866</v>
+        <v>173251.1150231024</v>
       </c>
       <c r="O6" t="n">
-        <v>150162.7164611278</v>
+        <v>149879.9384430265</v>
       </c>
       <c r="P6" t="n">
-        <v>150162.7164611279</v>
+        <v>149879.9384430266</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>978.7015692240877</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="D4" t="n">
-        <v>978.7015692240877</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="E4" t="n">
-        <v>978.7015692240877</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="F4" t="n">
-        <v>978.7015692240877</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26828,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>978.7015692240877</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="P4" t="n">
-        <v>978.7015692240877</v>
+        <v>978.7015692240873</v>
       </c>
     </row>
   </sheetData>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>422.4737561084937</v>
+        <v>422.4737561084931</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>300.0823483487689</v>
+        <v>300.0823483487695</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
-        <v>422.4737561084937</v>
+        <v>422.4737561084932</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
-        <v>422.4737561084937</v>
+        <v>422.4737561084931</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>300.0823483487689</v>
+        <v>300.0823483487695</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M2" t="n">
-        <v>48.74406945557163</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>556.227813115594</v>
+        <v>533.7539620806207</v>
       </c>
       <c r="O2" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>444.605878150503</v>
+        <v>155.2981118204434</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34789,13 +34789,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
@@ -34938,16 +34938,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L5" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M5" t="n">
-        <v>978.7015692240877</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>388.4309302005663</v>
+        <v>64.96065865537432</v>
       </c>
       <c r="O5" t="n">
         <v>853.6814647988001</v>
@@ -34956,10 +34956,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L6" t="n">
-        <v>845.2513212958648</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>83.23994392538575</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M8" t="n">
-        <v>978.7015692240877</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="N8" t="n">
-        <v>978.7015692240877</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="O8" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P8" t="n">
-        <v>579.1682832778989</v>
+        <v>125.1629762875157</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -35257,25 +35257,25 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>499.553882840162</v>
       </c>
       <c r="M9" t="n">
-        <v>168.9584246420405</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>978.7015692240877</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>64.9606586553743</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
@@ -35418,19 +35418,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>978.7015692240877</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>749.8004530636393</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35485,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
-        <v>573.8137250192643</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>978.7015692240877</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35509,7 +35509,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>748.0099536684355</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>978.7015692240877</v>
+        <v>756.4535108617216</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
@@ -35670,7 +35670,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>978.7015692240877</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>490.9659370549177</v>
+        <v>948.544011889563</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35892,19 +35892,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>62.48282579338712</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>208.6225309666485</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35983,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="R18" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>722.7356646217162</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="L20" t="n">
-        <v>191.6381265752669</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
@@ -36202,10 +36202,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36217,7 +36217,7 @@
         <v>898.4659373853249</v>
       </c>
       <c r="P21" t="n">
-        <v>332.0418444451491</v>
+        <v>83.23994392538575</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="M24" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36612,10 +36612,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>428.7489458104528</v>
+        <v>540.8056218692396</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
         <v>118.7437726079824</v>
@@ -36673,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>726.6390748562019</v>
+        <v>57.59993608192674</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
@@ -36846,13 +36846,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>853.6814647988001</v>
+        <v>581.517708971269</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36919,19 +36919,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>459.6574502083422</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37077,19 +37077,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>428.7489458104528</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>760.3041339439036</v>
+        <v>232.6338360546274</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37323,7 +37323,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184349</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37396,16 +37396,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O36" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>332.04184444515</v>
+        <v>257.8052598432934</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37560,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>547.4927184184349</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,13 +37627,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="N39" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37788,16 +37788,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>978.7015692240877</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="N41" t="n">
-        <v>58.68432683807138</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>407.851822132042</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
@@ -37861,28 +37861,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>424.2279564535041</v>
       </c>
       <c r="M42" t="n">
-        <v>928.4912652212505</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>866.7537262764181</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="N44" t="n">
-        <v>978.7015692240877</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>853.6814647988001</v>
+        <v>631.4334064364346</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
@@ -38095,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>487.2320584543432</v>
+        <v>251.8062126063877</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
